--- a/Dataset_Cleaned/LiteratureDataset_Hardness_YW_v3_processed.xlsx
+++ b/Dataset_Cleaned/LiteratureDataset_Hardness_YW_v3_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD681"/>
+  <dimension ref="A1:AC681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,11 +576,6 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>bulk_modulus</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>converted HV</t>
         </is>
       </c>
@@ -671,9 +666,6 @@
         <v>1.414148363551082</v>
       </c>
       <c r="AC2" t="n">
-        <v>162001658513.0712</v>
-      </c>
-      <c r="AD2" t="n">
         <v>140.913294288608</v>
       </c>
     </row>
@@ -763,9 +755,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC3" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD3" t="n">
         <v>550</v>
       </c>
     </row>
@@ -855,9 +844,6 @@
         <v>1.707778014386765</v>
       </c>
       <c r="AC4" t="n">
-        <v>161666654868.85</v>
-      </c>
-      <c r="AD4" t="n">
         <v>636</v>
       </c>
     </row>
@@ -947,9 +933,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC5" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD5" t="n">
         <v>510</v>
       </c>
     </row>
@@ -1039,9 +1022,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC6" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD6" t="n">
         <v>503</v>
       </c>
     </row>
@@ -1131,9 +1111,6 @@
         <v>1.577785720574065</v>
       </c>
       <c r="AC7" t="n">
-        <v>178392896077.9238</v>
-      </c>
-      <c r="AD7" t="n">
         <v>193.3154256021841</v>
       </c>
     </row>
@@ -1223,9 +1200,6 @@
         <v>1.669917664080127</v>
       </c>
       <c r="AC8" t="n">
-        <v>170150898362.5037</v>
-      </c>
-      <c r="AD8" t="n">
         <v>527.5441454929763</v>
       </c>
     </row>
@@ -1315,9 +1289,6 @@
         <v>1.669917664080127</v>
       </c>
       <c r="AC9" t="n">
-        <v>170150898362.5037</v>
-      </c>
-      <c r="AD9" t="n">
         <v>617.8167246466159</v>
       </c>
     </row>
@@ -1407,9 +1378,6 @@
         <v>1.669917664080127</v>
       </c>
       <c r="AC10" t="n">
-        <v>170150898362.5037</v>
-      </c>
-      <c r="AD10" t="n">
         <v>340.5779098336521</v>
       </c>
     </row>
@@ -1499,9 +1467,6 @@
         <v>1.414148363551082</v>
       </c>
       <c r="AC11" t="n">
-        <v>162001658513.0712</v>
-      </c>
-      <c r="AD11" t="n">
         <v>123.299132502532</v>
       </c>
     </row>
@@ -1591,9 +1556,6 @@
         <v>2.518673085756199</v>
       </c>
       <c r="AC12" t="n">
-        <v>147126059232.0575</v>
-      </c>
-      <c r="AD12" t="n">
         <v>856.9</v>
       </c>
     </row>
@@ -1683,9 +1645,6 @@
         <v>1.699666519956987</v>
       </c>
       <c r="AC13" t="n">
-        <v>173333537840.5439</v>
-      </c>
-      <c r="AD13" t="n">
         <v>223</v>
       </c>
     </row>
@@ -1775,9 +1734,6 @@
         <v>0.4329703656669751</v>
       </c>
       <c r="AC14" t="n">
-        <v>160005376175.2799</v>
-      </c>
-      <c r="AD14" t="n">
         <v>427.9</v>
       </c>
     </row>
@@ -1867,9 +1823,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC15" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD15" t="n">
         <v>487.4719274296534</v>
       </c>
     </row>
@@ -1959,9 +1912,6 @@
         <v>0.7453605292959316</v>
       </c>
       <c r="AC16" t="n">
-        <v>161804807362.2432</v>
-      </c>
-      <c r="AD16" t="n">
         <v>682.5487692104451</v>
       </c>
     </row>
@@ -2051,9 +2001,6 @@
         <v>0.4329703656669751</v>
       </c>
       <c r="AC17" t="n">
-        <v>160005376175.2799</v>
-      </c>
-      <c r="AD17" t="n">
         <v>444.3</v>
       </c>
     </row>
@@ -2143,9 +2090,6 @@
         <v>2.560253146145909</v>
       </c>
       <c r="AC18" t="n">
-        <v>146003803860.9658</v>
-      </c>
-      <c r="AD18" t="n">
         <v>703</v>
       </c>
     </row>
@@ -2235,9 +2179,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC19" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD19" t="n">
         <v>490.9947597868686</v>
       </c>
     </row>
@@ -2327,9 +2268,6 @@
         <v>0.8329910075146753</v>
       </c>
       <c r="AC20" t="n">
-        <v>171550764452.0494</v>
-      </c>
-      <c r="AD20" t="n">
         <v>720.8595710951605</v>
       </c>
     </row>
@@ -2419,9 +2357,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC21" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD21" t="n">
         <v>490.5544057422167</v>
       </c>
     </row>
@@ -2511,9 +2446,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC22" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD22" t="n">
         <v>415.978004003713</v>
       </c>
     </row>
@@ -2603,9 +2535,6 @@
         <v>2.601263506868631</v>
       </c>
       <c r="AC23" t="n">
-        <v>144853869502.2242</v>
-      </c>
-      <c r="AD23" t="n">
         <v>639.6</v>
       </c>
     </row>
@@ -2695,9 +2624,6 @@
         <v>2.660057074868882</v>
       </c>
       <c r="AC24" t="n">
-        <v>143173590562.1718</v>
-      </c>
-      <c r="AD24" t="n">
         <v>641.7</v>
       </c>
     </row>
@@ -2787,9 +2713,6 @@
         <v>2.716755154247016</v>
       </c>
       <c r="AC25" t="n">
-        <v>141487926369.4322</v>
-      </c>
-      <c r="AD25" t="n">
         <v>605.5</v>
       </c>
     </row>
@@ -2879,9 +2802,6 @@
         <v>1.235942833451026</v>
       </c>
       <c r="AC26" t="n">
-        <v>156999197855.4676</v>
-      </c>
-      <c r="AD26" t="n">
         <v>96.43753577876612</v>
       </c>
     </row>
@@ -2971,9 +2891,6 @@
         <v>0.4898877146783077</v>
       </c>
       <c r="AC27" t="n">
-        <v>213994378999.5016</v>
-      </c>
-      <c r="AD27" t="n">
         <v>536</v>
       </c>
     </row>
@@ -3063,9 +2980,6 @@
         <v>2.753660773340179</v>
       </c>
       <c r="AC28" t="n">
-        <v>140335707151.3176</v>
-      </c>
-      <c r="AD28" t="n">
         <v>581.7</v>
       </c>
     </row>
@@ -3155,9 +3069,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC29" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD29" t="n">
         <v>412.2233059340365</v>
       </c>
     </row>
@@ -3247,9 +3158,6 @@
         <v>1.790910437716989</v>
       </c>
       <c r="AC30" t="n">
-        <v>168137412675.4044</v>
-      </c>
-      <c r="AD30" t="n">
         <v>263</v>
       </c>
     </row>
@@ -3339,9 +3247,6 @@
         <v>1.884964413257641</v>
       </c>
       <c r="AC31" t="n">
-        <v>168137172014.9344</v>
-      </c>
-      <c r="AD31" t="n">
         <v>308</v>
       </c>
     </row>
@@ -3431,9 +3336,6 @@
         <v>1.967659501910924</v>
       </c>
       <c r="AC32" t="n">
-        <v>168142803882.0093</v>
-      </c>
-      <c r="AD32" t="n">
         <v>335</v>
       </c>
     </row>
@@ -3523,9 +3425,6 @@
         <v>1.577785720574065</v>
       </c>
       <c r="AC33" t="n">
-        <v>178392896077.9238</v>
-      </c>
-      <c r="AD33" t="n">
         <v>136.0693997974371</v>
       </c>
     </row>
@@ -3615,9 +3514,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC34" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD34" t="n">
         <v>309</v>
       </c>
     </row>
@@ -3707,9 +3603,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC35" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD35" t="n">
         <v>407.3743543487622</v>
       </c>
     </row>
@@ -3799,9 +3692,6 @@
         <v>1.520753245271568</v>
       </c>
       <c r="AC36" t="n">
-        <v>161904206387.9998</v>
-      </c>
-      <c r="AD36" t="n">
         <v>151</v>
       </c>
     </row>
@@ -3891,9 +3781,6 @@
         <v>1.520753245271568</v>
       </c>
       <c r="AC37" t="n">
-        <v>161904206387.9998</v>
-      </c>
-      <c r="AD37" t="n">
         <v>144</v>
       </c>
     </row>
@@ -3983,9 +3870,6 @@
         <v>1.7817402896983</v>
       </c>
       <c r="AC38" t="n">
-        <v>149643685113.5292</v>
-      </c>
-      <c r="AD38" t="n">
         <v>437.7119203839887</v>
       </c>
     </row>
@@ -4075,9 +3959,6 @@
         <v>1.915704336392708</v>
       </c>
       <c r="AC39" t="n">
-        <v>147048742806.0517</v>
-      </c>
-      <c r="AD39" t="n">
         <v>414.8135100620899</v>
       </c>
     </row>
@@ -4167,9 +4048,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC40" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD40" t="n">
         <v>493</v>
       </c>
     </row>
@@ -4259,9 +4137,6 @@
         <v>2.305208861406909</v>
       </c>
       <c r="AC41" t="n">
-        <v>163227489384.5599</v>
-      </c>
-      <c r="AD41" t="n">
         <v>586</v>
       </c>
     </row>
@@ -4351,9 +4226,6 @@
         <v>0.4999999990692543</v>
       </c>
       <c r="AC42" t="n">
-        <v>227504154586.0995</v>
-      </c>
-      <c r="AD42" t="n">
         <v>454</v>
       </c>
     </row>
@@ -4443,9 +4315,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC43" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD43" t="n">
         <v>519</v>
       </c>
     </row>
@@ -4535,9 +4404,6 @@
         <v>1.790910437716989</v>
       </c>
       <c r="AC44" t="n">
-        <v>168137412675.4044</v>
-      </c>
-      <c r="AD44" t="n">
         <v>185</v>
       </c>
     </row>
@@ -4627,9 +4493,6 @@
         <v>1.600655735886357</v>
       </c>
       <c r="AC45" t="n">
-        <v>161819471007.9024</v>
-      </c>
-      <c r="AD45" t="n">
         <v>186</v>
       </c>
     </row>
@@ -4719,9 +4582,6 @@
         <v>1.600655735886357</v>
       </c>
       <c r="AC46" t="n">
-        <v>161819471007.9024</v>
-      </c>
-      <c r="AD46" t="n">
         <v>275</v>
       </c>
     </row>
@@ -4811,9 +4671,6 @@
         <v>1.884964413257641</v>
       </c>
       <c r="AC47" t="n">
-        <v>168137172014.9344</v>
-      </c>
-      <c r="AD47" t="n">
         <v>197</v>
       </c>
     </row>
@@ -4903,9 +4760,6 @@
         <v>1.414148363551082</v>
       </c>
       <c r="AC48" t="n">
-        <v>162001658513.0712</v>
-      </c>
-      <c r="AD48" t="n">
         <v>144</v>
       </c>
     </row>
@@ -4995,9 +4849,6 @@
         <v>1.967659501910924</v>
       </c>
       <c r="AC49" t="n">
-        <v>168142803882.0093</v>
-      </c>
-      <c r="AD49" t="n">
         <v>204</v>
       </c>
     </row>
@@ -5087,9 +4938,6 @@
         <v>1.414148363551082</v>
       </c>
       <c r="AC50" t="n">
-        <v>162001658513.0712</v>
-      </c>
-      <c r="AD50" t="n">
         <v>135</v>
       </c>
     </row>
@@ -5179,9 +5027,6 @@
         <v>0.8291737718735968</v>
       </c>
       <c r="AC51" t="n">
-        <v>128995344906.7779</v>
-      </c>
-      <c r="AD51" t="n">
         <v>448</v>
       </c>
     </row>
@@ -5271,9 +5116,6 @@
         <v>1.661263878886966</v>
       </c>
       <c r="AC52" t="n">
-        <v>161740874447.2113</v>
-      </c>
-      <c r="AD52" t="n">
         <v>380</v>
       </c>
     </row>
@@ -5363,9 +5205,6 @@
         <v>1.661263878886966</v>
       </c>
       <c r="AC53" t="n">
-        <v>161740874447.2113</v>
-      </c>
-      <c r="AD53" t="n">
         <v>342</v>
       </c>
     </row>
@@ -5455,9 +5294,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC54" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD54" t="n">
         <v>359</v>
       </c>
     </row>
@@ -5547,9 +5383,6 @@
         <v>0.4999999987362628</v>
       </c>
       <c r="AC55" t="n">
-        <v>137711077630.1136</v>
-      </c>
-      <c r="AD55" t="n">
         <v>358</v>
       </c>
     </row>
@@ -5639,9 +5472,6 @@
         <v>0.4714125245781083</v>
       </c>
       <c r="AC56" t="n">
-        <v>159997589362.9091</v>
-      </c>
-      <c r="AD56" t="n">
         <v>246</v>
       </c>
     </row>
@@ -5731,9 +5561,6 @@
         <v>0.4714180964948559</v>
       </c>
       <c r="AC57" t="n">
-        <v>116946878744.6379</v>
-      </c>
-      <c r="AD57" t="n">
         <v>295</v>
       </c>
     </row>
@@ -5823,9 +5650,6 @@
         <v>0.4841098254978033</v>
       </c>
       <c r="AC58" t="n">
-        <v>150115150991.3956</v>
-      </c>
-      <c r="AD58" t="n">
         <v>294</v>
       </c>
     </row>
@@ -5915,9 +5739,6 @@
         <v>0.4841066645599224</v>
       </c>
       <c r="AC59" t="n">
-        <v>125312488066.951</v>
-      </c>
-      <c r="AD59" t="n">
         <v>489</v>
       </c>
     </row>
@@ -6007,9 +5828,6 @@
         <v>0.4899049001159893</v>
       </c>
       <c r="AC60" t="n">
-        <v>134165866959.3364</v>
-      </c>
-      <c r="AD60" t="n">
         <v>304</v>
       </c>
     </row>
@@ -6099,9 +5917,6 @@
         <v>0.7484984019088297</v>
       </c>
       <c r="AC61" t="n">
-        <v>126271199710.7434</v>
-      </c>
-      <c r="AD61" t="n">
         <v>408</v>
       </c>
     </row>
@@ -6191,9 +6006,6 @@
         <v>2.231907968985459</v>
       </c>
       <c r="AC62" t="n">
-        <v>162278034067.0901</v>
-      </c>
-      <c r="AD62" t="n">
         <v>212</v>
       </c>
     </row>
@@ -6283,9 +6095,6 @@
         <v>2.508873139683126</v>
       </c>
       <c r="AC63" t="n">
-        <v>156527944265.6021</v>
-      </c>
-      <c r="AD63" t="n">
         <v>385</v>
       </c>
     </row>
@@ -6375,9 +6184,6 @@
         <v>2.692552002275473</v>
       </c>
       <c r="AC64" t="n">
-        <v>151500795842.4374</v>
-      </c>
-      <c r="AD64" t="n">
         <v>456</v>
       </c>
     </row>
@@ -6467,9 +6273,6 @@
         <v>0.816493192958709</v>
       </c>
       <c r="AC65" t="n">
-        <v>176666613768.9268</v>
-      </c>
-      <c r="AD65" t="n">
         <v>125</v>
       </c>
     </row>
@@ -6559,9 +6362,6 @@
         <v>0.816493192958709</v>
       </c>
       <c r="AC66" t="n">
-        <v>176666613768.9268</v>
-      </c>
-      <c r="AD66" t="n">
         <v>125</v>
       </c>
     </row>
@@ -6651,9 +6451,6 @@
         <v>1.906029071817548</v>
       </c>
       <c r="AC67" t="n">
-        <v>165713116127.8472</v>
-      </c>
-      <c r="AD67" t="n">
         <v>287</v>
       </c>
     </row>
@@ -6743,9 +6540,6 @@
         <v>2.129257523541479</v>
       </c>
       <c r="AC68" t="n">
-        <v>161330604612.5556</v>
-      </c>
-      <c r="AD68" t="n">
         <v>570</v>
       </c>
     </row>
@@ -6835,9 +6629,6 @@
         <v>1.892797530678683</v>
       </c>
       <c r="AC69" t="n">
-        <v>166833327829.4268</v>
-      </c>
-      <c r="AD69" t="n">
         <v>110</v>
       </c>
     </row>
@@ -6927,9 +6718,6 @@
         <v>1.892797530678683</v>
       </c>
       <c r="AC70" t="n">
-        <v>166833327829.4268</v>
-      </c>
-      <c r="AD70" t="n">
         <v>113</v>
       </c>
     </row>
@@ -7019,9 +6807,6 @@
         <v>2.039167534099004</v>
       </c>
       <c r="AC71" t="n">
-        <v>164237153918.6566</v>
-      </c>
-      <c r="AD71" t="n">
         <v>131</v>
       </c>
     </row>
@@ -7111,9 +6896,6 @@
         <v>2.039167534099004</v>
       </c>
       <c r="AC72" t="n">
-        <v>164237153918.6566</v>
-      </c>
-      <c r="AD72" t="n">
         <v>196</v>
       </c>
     </row>
@@ -7203,9 +6985,6 @@
         <v>2.160588604853224</v>
       </c>
       <c r="AC73" t="n">
-        <v>161769848926.2895</v>
-      </c>
-      <c r="AD73" t="n">
         <v>159</v>
       </c>
     </row>
@@ -7295,9 +7074,6 @@
         <v>2.160588604853224</v>
       </c>
       <c r="AC74" t="n">
-        <v>161769848926.2895</v>
-      </c>
-      <c r="AD74" t="n">
         <v>209</v>
       </c>
     </row>
@@ -7387,9 +7163,6 @@
         <v>2.346885144844544</v>
       </c>
       <c r="AC75" t="n">
-        <v>157258630861.9987</v>
-      </c>
-      <c r="AD75" t="n">
         <v>388</v>
       </c>
     </row>
@@ -7479,9 +7252,6 @@
         <v>2.346885144844544</v>
       </c>
       <c r="AC76" t="n">
-        <v>157258630861.9987</v>
-      </c>
-      <c r="AD76" t="n">
         <v>280</v>
       </c>
     </row>
@@ -7571,9 +7341,6 @@
         <v>2.419540119629557</v>
       </c>
       <c r="AC77" t="n">
-        <v>155176613533.3687</v>
-      </c>
-      <c r="AD77" t="n">
         <v>538</v>
       </c>
     </row>
@@ -7663,9 +7430,6 @@
         <v>2.419540119629557</v>
       </c>
       <c r="AC78" t="n">
-        <v>155176613533.3687</v>
-      </c>
-      <c r="AD78" t="n">
         <v>361</v>
       </c>
     </row>
@@ -7755,9 +7519,6 @@
         <v>2.581842467643287</v>
       </c>
       <c r="AC79" t="n">
-        <v>149527460779.2178</v>
-      </c>
-      <c r="AD79" t="n">
         <v>487</v>
       </c>
     </row>
@@ -7847,9 +7608,6 @@
         <v>2.581842467643287</v>
       </c>
       <c r="AC80" t="n">
-        <v>149527460779.2178</v>
-      </c>
-      <c r="AD80" t="n">
         <v>499</v>
       </c>
     </row>
@@ -7939,9 +7697,6 @@
         <v>2.656449580298223</v>
       </c>
       <c r="AC81" t="n">
-        <v>146192826512.0842</v>
-      </c>
-      <c r="AD81" t="n">
         <v>484</v>
       </c>
     </row>
@@ -8031,9 +7786,6 @@
         <v>2.656449580298223</v>
       </c>
       <c r="AC82" t="n">
-        <v>146192826512.0842</v>
-      </c>
-      <c r="AD82" t="n">
         <v>517</v>
       </c>
     </row>
@@ -8123,9 +7875,6 @@
         <v>2.753660773340179</v>
       </c>
       <c r="AC83" t="n">
-        <v>140335707151.3176</v>
-      </c>
-      <c r="AD83" t="n">
         <v>509</v>
       </c>
     </row>
@@ -8215,9 +7964,6 @@
         <v>2.753660773340179</v>
       </c>
       <c r="AC84" t="n">
-        <v>140335707151.3176</v>
-      </c>
-      <c r="AD84" t="n">
         <v>512</v>
       </c>
     </row>
@@ -8307,9 +8053,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC85" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD85" t="n">
         <v>484</v>
       </c>
     </row>
@@ -8399,9 +8142,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC86" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD86" t="n">
         <v>433</v>
       </c>
     </row>
@@ -8491,9 +8231,6 @@
         <v>1.478979806827839</v>
       </c>
       <c r="AC87" t="n">
-        <v>172500167125.6241</v>
-      </c>
-      <c r="AD87" t="n">
         <v>116</v>
       </c>
     </row>
@@ -8583,9 +8320,6 @@
         <v>1.478979806827839</v>
       </c>
       <c r="AC88" t="n">
-        <v>172500167125.6241</v>
-      </c>
-      <c r="AD88" t="n">
         <v>113</v>
       </c>
     </row>
@@ -8675,9 +8409,6 @@
         <v>2.109408823437969</v>
       </c>
       <c r="AC89" t="n">
-        <v>168604285658.4792</v>
-      </c>
-      <c r="AD89" t="n">
         <v>425</v>
       </c>
     </row>
@@ -8767,9 +8498,6 @@
         <v>2.553489919125041</v>
       </c>
       <c r="AC90" t="n">
-        <v>153165837041.8478</v>
-      </c>
-      <c r="AD90" t="n">
         <v>655</v>
       </c>
     </row>
@@ -8859,9 +8587,6 @@
         <v>2.649103757831205</v>
       </c>
       <c r="AC91" t="n">
-        <v>147233932573.4887</v>
-      </c>
-      <c r="AD91" t="n">
         <v>605</v>
       </c>
     </row>
@@ -8951,9 +8676,6 @@
         <v>2.391345676450991</v>
       </c>
       <c r="AC92" t="n">
-        <v>160185748271.9616</v>
-      </c>
-      <c r="AD92" t="n">
         <v>715</v>
       </c>
     </row>
@@ -9043,9 +8765,6 @@
         <v>1.5634965168138</v>
       </c>
       <c r="AC93" t="n">
-        <v>178886504725.0166</v>
-      </c>
-      <c r="AD93" t="n">
         <v>210</v>
       </c>
     </row>
@@ -9135,9 +8854,6 @@
         <v>2.411908694501249</v>
       </c>
       <c r="AC94" t="n">
-        <v>152368449583.1006</v>
-      </c>
-      <c r="AD94" t="n">
         <v>634.5932653789712</v>
       </c>
     </row>
@@ -9227,9 +8943,6 @@
         <v>2.646697618272283</v>
       </c>
       <c r="AC95" t="n">
-        <v>140625065608.6797</v>
-      </c>
-      <c r="AD95" t="n">
         <v>836.8698687185182</v>
       </c>
     </row>
@@ -9319,9 +9032,6 @@
         <v>2.695413683084577</v>
       </c>
       <c r="AC96" t="n">
-        <v>135999475482.5112</v>
-      </c>
-      <c r="AD96" t="n">
         <v>643</v>
       </c>
     </row>
@@ -9411,9 +9121,6 @@
         <v>2.154043080432685</v>
       </c>
       <c r="AC97" t="n">
-        <v>160000489422.5372</v>
-      </c>
-      <c r="AD97" t="n">
         <v>801.1739975409511</v>
       </c>
     </row>
@@ -9503,9 +9210,6 @@
         <v>2.253254000934631</v>
       </c>
       <c r="AC98" t="n">
-        <v>160524239046.3854</v>
-      </c>
-      <c r="AD98" t="n">
         <v>717</v>
       </c>
     </row>
@@ -9595,9 +9299,6 @@
         <v>2.070773869679897</v>
       </c>
       <c r="AC99" t="n">
-        <v>164956052026.8188</v>
-      </c>
-      <c r="AD99" t="n">
         <v>487</v>
       </c>
     </row>
@@ -9687,9 +9388,6 @@
         <v>2.126381618659737</v>
       </c>
       <c r="AC100" t="n">
-        <v>163326581176.3503</v>
-      </c>
-      <c r="AD100" t="n">
         <v>654</v>
       </c>
     </row>
@@ -9779,9 +9477,6 @@
         <v>1.880453716755682</v>
       </c>
       <c r="AC101" t="n">
-        <v>168184070739.233</v>
-      </c>
-      <c r="AD101" t="n">
         <v>509</v>
       </c>
     </row>
@@ -9871,9 +9566,6 @@
         <v>2.656449580298223</v>
       </c>
       <c r="AC102" t="n">
-        <v>146192826512.0842</v>
-      </c>
-      <c r="AD102" t="n">
         <v>402</v>
       </c>
     </row>
@@ -9963,9 +9655,6 @@
         <v>2.805400769959275</v>
       </c>
       <c r="AC103" t="n">
-        <v>135382772252.3752</v>
-      </c>
-      <c r="AD103" t="n">
         <v>487</v>
       </c>
     </row>
@@ -10055,9 +9744,6 @@
         <v>2.753660773340179</v>
       </c>
       <c r="AC104" t="n">
-        <v>140335707151.3176</v>
-      </c>
-      <c r="AD104" t="n">
         <v>432</v>
       </c>
     </row>
@@ -10147,9 +9833,6 @@
         <v>2.828576480553974</v>
       </c>
       <c r="AC105" t="n">
-        <v>131115718222.0902</v>
-      </c>
-      <c r="AD105" t="n">
         <v>506</v>
       </c>
     </row>
@@ -10239,9 +9922,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC106" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD106" t="n">
         <v>395</v>
       </c>
     </row>
@@ -10331,9 +10011,6 @@
         <v>2.870733601318</v>
       </c>
       <c r="AC107" t="n">
-        <v>145193891622.3064</v>
-      </c>
-      <c r="AD107" t="n">
         <v>342</v>
       </c>
     </row>
@@ -10423,9 +10100,6 @@
         <v>1.720484345351055</v>
       </c>
       <c r="AC108" t="n">
-        <v>165999407630.7888</v>
-      </c>
-      <c r="AD108" t="n">
         <v>286</v>
       </c>
     </row>
@@ -10515,9 +10189,6 @@
         <v>1.854757705179749</v>
       </c>
       <c r="AC109" t="n">
-        <v>153996296047.5863</v>
-      </c>
-      <c r="AD109" t="n">
         <v>296</v>
       </c>
     </row>
@@ -10607,9 +10278,6 @@
         <v>2.039595505645147</v>
       </c>
       <c r="AC110" t="n">
-        <v>175999838466.4254</v>
-      </c>
-      <c r="AD110" t="n">
         <v>263</v>
       </c>
     </row>
@@ -10699,9 +10367,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC111" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD111" t="n">
         <v>501.1229028138623</v>
       </c>
     </row>
@@ -10791,9 +10456,6 @@
         <v>2.463299882857176</v>
       </c>
       <c r="AC112" t="n">
-        <v>154700513825.9173</v>
-      </c>
-      <c r="AD112" t="n">
         <v>849.3470498585309</v>
       </c>
     </row>
@@ -10883,9 +10545,6 @@
         <v>2.444531691927453</v>
       </c>
       <c r="AC113" t="n">
-        <v>156158492920.3497</v>
-      </c>
-      <c r="AD113" t="n">
         <v>1126.365364540065</v>
       </c>
     </row>
@@ -10975,9 +10634,6 @@
         <v>2.426340339246241</v>
       </c>
       <c r="AC114" t="n">
-        <v>157553111814.1157</v>
-      </c>
-      <c r="AD114" t="n">
         <v>1219.42868068386</v>
       </c>
     </row>
@@ -11067,9 +10723,6 @@
         <v>2.40893957185697</v>
       </c>
       <c r="AC115" t="n">
-        <v>158885062004.8236</v>
-      </c>
-      <c r="AD115" t="n">
         <v>1214.731809567452</v>
       </c>
     </row>
@@ -11159,9 +10812,6 @@
         <v>2.391345676450991</v>
       </c>
       <c r="AC116" t="n">
-        <v>160185748271.9616</v>
-      </c>
-      <c r="AD116" t="n">
         <v>1209.098411080943</v>
       </c>
     </row>
@@ -11251,9 +10901,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC117" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD117" t="n">
         <v>462.812100929147</v>
       </c>
     </row>
@@ -11343,9 +10990,6 @@
         <v>2.559685022143857</v>
       </c>
       <c r="AC118" t="n">
-        <v>153585436964.4476</v>
-      </c>
-      <c r="AD118" t="n">
         <v>270</v>
       </c>
     </row>
@@ -11435,9 +11079,6 @@
         <v>2.427018175648368</v>
       </c>
       <c r="AC119" t="n">
-        <v>158195128242.2217</v>
-      </c>
-      <c r="AD119" t="n">
         <v>801</v>
       </c>
     </row>
@@ -11527,9 +11168,6 @@
         <v>2.349779275686033</v>
       </c>
       <c r="AC120" t="n">
-        <v>161823118982.3539</v>
-      </c>
-      <c r="AD120" t="n">
         <v>741</v>
       </c>
     </row>
@@ -11619,9 +11257,6 @@
         <v>2.391345676450991</v>
       </c>
       <c r="AC121" t="n">
-        <v>160185748271.9616</v>
-      </c>
-      <c r="AD121" t="n">
         <v>796</v>
       </c>
     </row>
@@ -11711,9 +11346,6 @@
         <v>2.391345676450991</v>
       </c>
       <c r="AC122" t="n">
-        <v>160185748271.9616</v>
-      </c>
-      <c r="AD122" t="n">
         <v>755</v>
       </c>
     </row>
@@ -11803,9 +11435,6 @@
         <v>2.469238572270116</v>
       </c>
       <c r="AC123" t="n">
-        <v>159416065967.8857</v>
-      </c>
-      <c r="AD123" t="n">
         <v>754</v>
       </c>
     </row>
@@ -11895,9 +11524,6 @@
         <v>2.30361252635091</v>
       </c>
       <c r="AC124" t="n">
-        <v>160988350315.6327</v>
-      </c>
-      <c r="AD124" t="n">
         <v>635</v>
       </c>
     </row>
@@ -11987,9 +11613,6 @@
         <v>2.223965816093214</v>
       </c>
       <c r="AC125" t="n">
-        <v>161695117724.7296</v>
-      </c>
-      <c r="AD125" t="n">
         <v>639</v>
       </c>
     </row>
@@ -12079,9 +11702,6 @@
         <v>2.165936818079038</v>
       </c>
       <c r="AC126" t="n">
-        <v>155778076834.3587</v>
-      </c>
-      <c r="AD126" t="n">
         <v>857</v>
       </c>
     </row>
@@ -12171,9 +11791,6 @@
         <v>2.391345676450991</v>
       </c>
       <c r="AC127" t="n">
-        <v>160185748271.9616</v>
-      </c>
-      <c r="AD127" t="n">
         <v>730</v>
       </c>
     </row>
@@ -12263,9 +11880,6 @@
         <v>2.315075675371548</v>
       </c>
       <c r="AC128" t="n">
-        <v>158207444827.3464</v>
-      </c>
-      <c r="AD128" t="n">
         <v>708</v>
       </c>
     </row>
@@ -12355,9 +11969,6 @@
         <v>2.426523584771184</v>
       </c>
       <c r="AC129" t="n">
-        <v>161830601332.3973</v>
-      </c>
-      <c r="AD129" t="n">
         <v>586</v>
       </c>
     </row>
@@ -12447,9 +12058,6 @@
         <v>2.437169715264095</v>
       </c>
       <c r="AC130" t="n">
-        <v>163237463388.2344</v>
-      </c>
-      <c r="AD130" t="n">
         <v>395</v>
       </c>
     </row>
@@ -12539,9 +12147,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC131" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD131" t="n">
         <v>488.7929895636091</v>
       </c>
     </row>
@@ -12631,9 +12236,6 @@
         <v>2.56042981677483</v>
       </c>
       <c r="AC132" t="n">
-        <v>144332511121.7043</v>
-      </c>
-      <c r="AD132" t="n">
         <v>1115.862467349104</v>
       </c>
     </row>
@@ -12723,9 +12325,6 @@
         <v>2.545476326292201</v>
       </c>
       <c r="AC133" t="n">
-        <v>147495706179.8942</v>
-      </c>
-      <c r="AD133" t="n">
         <v>839.0959769166805</v>
       </c>
     </row>
@@ -12815,9 +12414,6 @@
         <v>2.554913088644007</v>
       </c>
       <c r="AC134" t="n">
-        <v>145869958420.6729</v>
-      </c>
-      <c r="AD134" t="n">
         <v>1008.064625076239</v>
       </c>
     </row>
@@ -12907,9 +12503,6 @@
         <v>2.525944773037409</v>
       </c>
       <c r="AC135" t="n">
-        <v>152180597012.4243</v>
-      </c>
-      <c r="AD135" t="n">
         <v>953.1794788965192</v>
       </c>
     </row>
@@ -12999,9 +12592,6 @@
         <v>2.560253146145909</v>
       </c>
       <c r="AC136" t="n">
-        <v>146003803860.9658</v>
-      </c>
-      <c r="AD136" t="n">
         <v>921.1700817380625</v>
       </c>
     </row>
@@ -13091,9 +12681,6 @@
         <v>2.56045545985349</v>
       </c>
       <c r="AC137" t="n">
-        <v>143238299309.1621</v>
-      </c>
-      <c r="AD137" t="n">
         <v>1028.197265135735</v>
       </c>
     </row>
@@ -13183,9 +12770,6 @@
         <v>2.42060802863269</v>
       </c>
       <c r="AC138" t="n">
-        <v>138346865015.3796</v>
-      </c>
-      <c r="AD138" t="n">
         <v>780</v>
       </c>
     </row>
@@ -13275,9 +12859,6 @@
         <v>2.587194459735704</v>
       </c>
       <c r="AC139" t="n">
-        <v>135261267711.8055</v>
-      </c>
-      <c r="AD139" t="n">
         <v>790</v>
       </c>
     </row>
@@ -13367,9 +12948,6 @@
         <v>2.494446320579511</v>
       </c>
       <c r="AC140" t="n">
-        <v>127800085616.4871</v>
-      </c>
-      <c r="AD140" t="n">
         <v>800</v>
       </c>
     </row>
@@ -13459,9 +13037,6 @@
         <v>2.570962370515921</v>
       </c>
       <c r="AC141" t="n">
-        <v>146354151827.0606</v>
-      </c>
-      <c r="AD141" t="n">
         <v>680</v>
       </c>
     </row>
@@ -13551,9 +13126,6 @@
         <v>2.12136108824705</v>
       </c>
       <c r="AC142" t="n">
-        <v>157601778063.0097</v>
-      </c>
-      <c r="AD142" t="n">
         <v>850</v>
       </c>
     </row>
@@ -13643,9 +13215,6 @@
         <v>2.710477207997698</v>
       </c>
       <c r="AC143" t="n">
-        <v>144404590234.0224</v>
-      </c>
-      <c r="AD143" t="n">
         <v>630</v>
       </c>
     </row>
@@ -13735,9 +13304,6 @@
         <v>2.258765720551895</v>
       </c>
       <c r="AC144" t="n">
-        <v>157254908161.5121</v>
-      </c>
-      <c r="AD144" t="n">
         <v>790</v>
       </c>
     </row>
@@ -13827,9 +13393,6 @@
         <v>2.828370983724159</v>
       </c>
       <c r="AC145" t="n">
-        <v>138472362239.6588</v>
-      </c>
-      <c r="AD145" t="n">
         <v>590</v>
       </c>
     </row>
@@ -13919,9 +13482,6 @@
         <v>2.192099589089752</v>
       </c>
       <c r="AC146" t="n">
-        <v>153465594457.4242</v>
-      </c>
-      <c r="AD146" t="n">
         <v>740</v>
       </c>
     </row>
@@ -14011,9 +13571,6 @@
         <v>1.561986854797917</v>
       </c>
       <c r="AC147" t="n">
-        <v>160317884463.5541</v>
-      </c>
-      <c r="AD147" t="n">
         <v>180</v>
       </c>
     </row>
@@ -14103,9 +13660,6 @@
         <v>1.914083489642274</v>
       </c>
       <c r="AC148" t="n">
-        <v>155195319111.3889</v>
-      </c>
-      <c r="AD148" t="n">
         <v>183</v>
       </c>
     </row>
@@ -14195,9 +13749,6 @@
         <v>1.962839030975425</v>
       </c>
       <c r="AC149" t="n">
-        <v>154328812311.4535</v>
-      </c>
-      <c r="AD149" t="n">
         <v>220</v>
       </c>
     </row>
@@ -14287,9 +13838,6 @@
         <v>2.01539352804916</v>
       </c>
       <c r="AC150" t="n">
-        <v>153342847134.1481</v>
-      </c>
-      <c r="AD150" t="n">
         <v>278</v>
       </c>
     </row>
@@ -14379,9 +13927,6 @@
         <v>2.057475787608325</v>
       </c>
       <c r="AC151" t="n">
-        <v>152509951746.1397</v>
-      </c>
-      <c r="AD151" t="n">
         <v>405</v>
       </c>
     </row>
@@ -14471,9 +14016,6 @@
         <v>2.096421695003934</v>
       </c>
       <c r="AC152" t="n">
-        <v>151707203121.2531</v>
-      </c>
-      <c r="AD152" t="n">
         <v>486</v>
       </c>
     </row>
@@ -14563,9 +14105,6 @@
         <v>2.138732208235819</v>
       </c>
       <c r="AC153" t="n">
-        <v>150785275735.1885</v>
-      </c>
-      <c r="AD153" t="n">
         <v>530</v>
       </c>
     </row>
@@ -14655,9 +14194,6 @@
         <v>2.172596198264718</v>
       </c>
       <c r="AC154" t="n">
-        <v>150011802736.2726</v>
-      </c>
-      <c r="AD154" t="n">
         <v>539</v>
       </c>
     </row>
@@ -14747,9 +14283,6 @@
         <v>2.209767889842772</v>
       </c>
       <c r="AC155" t="n">
-        <v>149127436685.3862</v>
-      </c>
-      <c r="AD155" t="n">
         <v>533</v>
       </c>
     </row>
@@ -14839,9 +14372,6 @@
         <v>2.244091569563798</v>
       </c>
       <c r="AC156" t="n">
-        <v>148265187482.9805</v>
-      </c>
-      <c r="AD156" t="n">
         <v>535</v>
       </c>
     </row>
@@ -14931,9 +14461,6 @@
         <v>2.36652907986535</v>
       </c>
       <c r="AC157" t="n">
-        <v>144794323695.2061</v>
-      </c>
-      <c r="AD157" t="n">
         <v>539</v>
       </c>
     </row>
@@ -15023,9 +14550,6 @@
         <v>1.707778014386765</v>
       </c>
       <c r="AC158" t="n">
-        <v>161666654868.85</v>
-      </c>
-      <c r="AD158" t="n">
         <v>650</v>
       </c>
     </row>
@@ -15115,9 +14639,6 @@
         <v>1.645993635875999</v>
       </c>
       <c r="AC159" t="n">
-        <v>150641526663.2693</v>
-      </c>
-      <c r="AD159" t="n">
         <v>297</v>
       </c>
     </row>
@@ -15207,9 +14728,6 @@
         <v>1.824976667840947</v>
       </c>
       <c r="AC160" t="n">
-        <v>147337454568.883</v>
-      </c>
-      <c r="AD160" t="n">
         <v>396</v>
       </c>
     </row>
@@ -15299,9 +14817,6 @@
         <v>2.332483015024446</v>
       </c>
       <c r="AC161" t="n">
-        <v>163200055936.8809</v>
-      </c>
-      <c r="AD161" t="n">
         <v>905</v>
       </c>
     </row>
@@ -15391,9 +14906,6 @@
         <v>2.377134915769272</v>
       </c>
       <c r="AC162" t="n">
-        <v>160422472486.1726</v>
-      </c>
-      <c r="AD162" t="n">
         <v>854</v>
       </c>
     </row>
@@ -15483,9 +14995,6 @@
         <v>2.233515222727505</v>
       </c>
       <c r="AC163" t="n">
-        <v>156457510539.6935</v>
-      </c>
-      <c r="AD163" t="n">
         <v>180</v>
       </c>
     </row>
@@ -15575,9 +15084,6 @@
         <v>2.423818959202709</v>
       </c>
       <c r="AC164" t="n">
-        <v>152895210698.4527</v>
-      </c>
-      <c r="AD164" t="n">
         <v>207</v>
       </c>
     </row>
@@ -15667,9 +15173,6 @@
         <v>2.628757891966015</v>
       </c>
       <c r="AC165" t="n">
-        <v>148080254210.4183</v>
-      </c>
-      <c r="AD165" t="n">
         <v>271</v>
       </c>
     </row>
@@ -15759,9 +15262,6 @@
         <v>2.837874076616391</v>
       </c>
       <c r="AC166" t="n">
-        <v>141276306438.7487</v>
-      </c>
-      <c r="AD166" t="n">
         <v>476</v>
       </c>
     </row>
@@ -15851,9 +15351,6 @@
         <v>2.891949928870626</v>
       </c>
       <c r="AC167" t="n">
-        <v>138914021609.5421</v>
-      </c>
-      <c r="AD167" t="n">
         <v>510</v>
       </c>
     </row>
@@ -15943,9 +15440,6 @@
         <v>2.951925624407159</v>
       </c>
       <c r="AC168" t="n">
-        <v>135673536962.7621</v>
-      </c>
-      <c r="AD168" t="n">
         <v>557</v>
       </c>
     </row>
@@ -16035,9 +15529,6 @@
         <v>2.981399287166827</v>
       </c>
       <c r="AC169" t="n">
-        <v>133667561564.8751</v>
-      </c>
-      <c r="AD169" t="n">
         <v>567</v>
       </c>
     </row>
@@ -16127,9 +15618,6 @@
         <v>3.012468736261745</v>
       </c>
       <c r="AC170" t="n">
-        <v>130929073685.792</v>
-      </c>
-      <c r="AD170" t="n">
         <v>603</v>
       </c>
     </row>
@@ -16219,9 +15707,6 @@
         <v>3.026546168775184</v>
       </c>
       <c r="AC171" t="n">
-        <v>129231250102.6652</v>
-      </c>
-      <c r="AD171" t="n">
         <v>624</v>
       </c>
     </row>
@@ -16311,9 +15796,6 @@
         <v>3.039448104854586</v>
       </c>
       <c r="AC172" t="n">
-        <v>126875318492.5564</v>
-      </c>
-      <c r="AD172" t="n">
         <v>657</v>
       </c>
     </row>
@@ -16403,9 +15885,6 @@
         <v>3.043907518250353</v>
       </c>
       <c r="AC173" t="n">
-        <v>125412948987.1584</v>
-      </c>
-      <c r="AD173" t="n">
         <v>644</v>
       </c>
     </row>
@@ -16495,9 +15974,6 @@
         <v>2.727869194701455</v>
       </c>
       <c r="AC174" t="n">
-        <v>145193329397.5956</v>
-      </c>
-      <c r="AD174" t="n">
         <v>407</v>
       </c>
     </row>
@@ -16587,9 +16063,6 @@
         <v>1.802765241540005</v>
       </c>
       <c r="AC175" t="n">
-        <v>162500631956.9243</v>
-      </c>
-      <c r="AD175" t="n">
         <v>134</v>
       </c>
     </row>
@@ -16679,9 +16152,6 @@
         <v>1.640469817751893</v>
       </c>
       <c r="AC176" t="n">
-        <v>168889997335.7091</v>
-      </c>
-      <c r="AD176" t="n">
         <v>172</v>
       </c>
     </row>
@@ -16771,9 +16241,6 @@
         <v>2.380511008444767</v>
       </c>
       <c r="AC177" t="n">
-        <v>156665350516.3302</v>
-      </c>
-      <c r="AD177" t="n">
         <v>532.3159953867495</v>
       </c>
     </row>
@@ -16863,9 +16330,6 @@
         <v>2.339105020545805</v>
       </c>
       <c r="AC178" t="n">
-        <v>157816364024.7777</v>
-      </c>
-      <c r="AD178" t="n">
         <v>300</v>
       </c>
     </row>
@@ -16955,9 +16419,6 @@
         <v>2.339105020545805</v>
       </c>
       <c r="AC179" t="n">
-        <v>157816364024.7777</v>
-      </c>
-      <c r="AD179" t="n">
         <v>225</v>
       </c>
     </row>
@@ -17047,9 +16508,6 @@
         <v>2.646835472413762</v>
       </c>
       <c r="AC180" t="n">
-        <v>150462499564.8886</v>
-      </c>
-      <c r="AD180" t="n">
         <v>636</v>
       </c>
     </row>
@@ -17139,9 +16597,6 @@
         <v>2.428300830744161</v>
       </c>
       <c r="AC181" t="n">
-        <v>156143281523.5592</v>
-      </c>
-      <c r="AD181" t="n">
         <v>272</v>
       </c>
     </row>
@@ -17231,9 +16686,6 @@
         <v>2.500438290394297</v>
       </c>
       <c r="AC182" t="n">
-        <v>154584068305.6604</v>
-      </c>
-      <c r="AD182" t="n">
         <v>321</v>
       </c>
     </row>
@@ -17323,9 +16775,6 @@
         <v>2.559506354312359</v>
       </c>
       <c r="AC183" t="n">
-        <v>153118919974.1209</v>
-      </c>
-      <c r="AD183" t="n">
         <v>458</v>
       </c>
     </row>
@@ -17415,9 +16864,6 @@
         <v>2.607844662136286</v>
       </c>
       <c r="AC184" t="n">
-        <v>151741523182.8826</v>
-      </c>
-      <c r="AD184" t="n">
         <v>590</v>
       </c>
     </row>
@@ -17507,9 +16953,6 @@
         <v>2.678904641390405</v>
       </c>
       <c r="AC185" t="n">
-        <v>149246341912.728</v>
-      </c>
-      <c r="AD185" t="n">
         <v>646</v>
       </c>
     </row>
@@ -17599,9 +17042,6 @@
         <v>2.704430109705873</v>
       </c>
       <c r="AC186" t="n">
-        <v>148113754377.3142</v>
-      </c>
-      <c r="AD186" t="n">
         <v>664</v>
       </c>
     </row>
@@ -17691,9 +17131,6 @@
         <v>2.724445869521989</v>
       </c>
       <c r="AC187" t="n">
-        <v>147056651974.1319</v>
-      </c>
-      <c r="AD187" t="n">
         <v>657</v>
       </c>
     </row>
@@ -17783,9 +17220,6 @@
         <v>2.740858636117646</v>
       </c>
       <c r="AC188" t="n">
-        <v>146038718708.5086</v>
-      </c>
-      <c r="AD188" t="n">
         <v>667</v>
       </c>
     </row>
@@ -17875,9 +17309,6 @@
         <v>2.753687511302563</v>
       </c>
       <c r="AC189" t="n">
-        <v>145064017009.1479</v>
-      </c>
-      <c r="AD189" t="n">
         <v>696</v>
       </c>
     </row>
@@ -17967,9 +17398,6 @@
         <v>2.339105020545805</v>
       </c>
       <c r="AC190" t="n">
-        <v>157816364024.7777</v>
-      </c>
-      <c r="AD190" t="n">
         <v>215</v>
       </c>
     </row>
@@ -18059,9 +17487,6 @@
         <v>2.374801657236654</v>
       </c>
       <c r="AC191" t="n">
-        <v>157903238231.2718</v>
-      </c>
-      <c r="AD191" t="n">
         <v>204</v>
       </c>
     </row>
@@ -18151,9 +17576,6 @@
         <v>2.403659510281494</v>
       </c>
       <c r="AC192" t="n">
-        <v>157963814802.4595</v>
-      </c>
-      <c r="AD192" t="n">
         <v>231</v>
       </c>
     </row>
@@ -18243,9 +17665,6 @@
         <v>2.425449727579548</v>
       </c>
       <c r="AC193" t="n">
-        <v>158032705144.9745</v>
-      </c>
-      <c r="AD193" t="n">
         <v>328</v>
       </c>
     </row>
@@ -18335,9 +17754,6 @@
         <v>2.441984901417143</v>
       </c>
       <c r="AC194" t="n">
-        <v>158096705297.1425</v>
-      </c>
-      <c r="AD194" t="n">
         <v>447</v>
       </c>
     </row>
@@ -18427,9 +17843,6 @@
         <v>2.45455356028739</v>
       </c>
       <c r="AC195" t="n">
-        <v>158148658477.701</v>
-      </c>
-      <c r="AD195" t="n">
         <v>639</v>
       </c>
     </row>
@@ -18519,9 +17932,6 @@
         <v>2.46290563624029</v>
       </c>
       <c r="AC196" t="n">
-        <v>158208857922.6038</v>
-      </c>
-      <c r="AD196" t="n">
         <v>579</v>
       </c>
     </row>
@@ -18611,9 +18021,6 @@
         <v>2.468551405461491</v>
       </c>
       <c r="AC197" t="n">
-        <v>158257969248.2093</v>
-      </c>
-      <c r="AD197" t="n">
         <v>577</v>
       </c>
     </row>
@@ -18703,9 +18110,6 @@
         <v>2.471263735317494</v>
       </c>
       <c r="AC198" t="n">
-        <v>158316399201.7066</v>
-      </c>
-      <c r="AD198" t="n">
         <v>594</v>
       </c>
     </row>
@@ -18795,9 +18199,6 @@
         <v>2.472043683086754</v>
       </c>
       <c r="AC199" t="n">
-        <v>158360458180.6799</v>
-      </c>
-      <c r="AD199" t="n">
         <v>597</v>
       </c>
     </row>
@@ -18887,9 +18288,6 @@
         <v>2.471324907407185</v>
       </c>
       <c r="AC200" t="n">
-        <v>158392822044.6793</v>
-      </c>
-      <c r="AD200" t="n">
         <v>587</v>
       </c>
     </row>
@@ -18979,9 +18377,6 @@
         <v>2.672029675941108</v>
       </c>
       <c r="AC201" t="n">
-        <v>150996179303.765</v>
-      </c>
-      <c r="AD201" t="n">
         <v>472</v>
       </c>
     </row>
@@ -19071,9 +18466,6 @@
         <v>2.785743085840141</v>
       </c>
       <c r="AC202" t="n">
-        <v>149198549450.287</v>
-      </c>
-      <c r="AD202" t="n">
         <v>536</v>
       </c>
     </row>
@@ -19163,9 +18555,6 @@
         <v>2.986194239013563</v>
       </c>
       <c r="AC203" t="n">
-        <v>140994003901.1165</v>
-      </c>
-      <c r="AD203" t="n">
         <v>682</v>
       </c>
     </row>
@@ -19255,9 +18644,6 @@
         <v>2.985964922132384</v>
       </c>
       <c r="AC204" t="n">
-        <v>142670251536.0346</v>
-      </c>
-      <c r="AD204" t="n">
         <v>626</v>
       </c>
     </row>
@@ -19347,9 +18733,6 @@
         <v>2.986290875660325</v>
       </c>
       <c r="AC205" t="n">
-        <v>136131846291.6014</v>
-      </c>
-      <c r="AD205" t="n">
         <v>472</v>
       </c>
     </row>
@@ -19439,9 +18822,6 @@
         <v>2.490454961934267</v>
       </c>
       <c r="AC206" t="n">
-        <v>146578484496.0569</v>
-      </c>
-      <c r="AD206" t="n">
         <v>442.5558148751596</v>
       </c>
     </row>
@@ -19531,9 +18911,6 @@
         <v>2.672029675941108</v>
       </c>
       <c r="AC207" t="n">
-        <v>150996179303.765</v>
-      </c>
-      <c r="AD207" t="n">
         <v>573.7813201814258</v>
       </c>
     </row>
@@ -19623,9 +19000,6 @@
         <v>2.814058950561936</v>
       </c>
       <c r="AC208" t="n">
-        <v>145136554827.7589</v>
-      </c>
-      <c r="AD208" t="n">
         <v>543.3968911004447</v>
       </c>
     </row>
@@ -19715,9 +19089,6 @@
         <v>2.664835452486391</v>
       </c>
       <c r="AC209" t="n">
-        <v>152291217029.8418</v>
-      </c>
-      <c r="AD209" t="n">
         <v>646.8800915936413</v>
       </c>
     </row>
@@ -19807,9 +19178,6 @@
         <v>3.023084989418293</v>
       </c>
       <c r="AC210" t="n">
-        <v>141000482715.3969</v>
-      </c>
-      <c r="AD210" t="n">
         <v>592.9480823384762</v>
       </c>
     </row>
@@ -19899,9 +19267,6 @@
         <v>3.155831779794726</v>
       </c>
       <c r="AC211" t="n">
-        <v>126714152088.4212</v>
-      </c>
-      <c r="AD211" t="n">
         <v>472.7719827073335</v>
       </c>
     </row>
@@ -19991,9 +19356,6 @@
         <v>3.109391162426574</v>
       </c>
       <c r="AC212" t="n">
-        <v>133313466622.4101</v>
-      </c>
-      <c r="AD212" t="n">
         <v>406.5363106334034</v>
       </c>
     </row>
@@ -20083,9 +19445,6 @@
         <v>3.141109024441211</v>
       </c>
       <c r="AC213" t="n">
-        <v>129226668593.7291</v>
-      </c>
-      <c r="AD213" t="n">
         <v>525.5225478919605</v>
       </c>
     </row>
@@ -20175,9 +19534,6 @@
         <v>1.118057847418725</v>
       </c>
       <c r="AC214" t="n">
-        <v>167499181097.5702</v>
-      </c>
-      <c r="AD214" t="n">
         <v>190.3779796136913</v>
       </c>
     </row>
@@ -20267,9 +19623,6 @@
         <v>1.414236028974712</v>
       </c>
       <c r="AC215" t="n">
-        <v>157998642697.8442</v>
-      </c>
-      <c r="AD215" t="n">
         <v>208</v>
       </c>
     </row>
@@ -20359,9 +19712,6 @@
         <v>2.870733601318</v>
       </c>
       <c r="AC216" t="n">
-        <v>145193891622.3064</v>
-      </c>
-      <c r="AD216" t="n">
         <v>495</v>
       </c>
     </row>
@@ -20451,9 +19801,6 @@
         <v>2.900250820685889</v>
       </c>
       <c r="AC217" t="n">
-        <v>142177354855.2567</v>
-      </c>
-      <c r="AD217" t="n">
         <v>496</v>
       </c>
     </row>
@@ -20543,9 +19890,6 @@
         <v>2.886891174820732</v>
       </c>
       <c r="AC218" t="n">
-        <v>143746583913.6962</v>
-      </c>
-      <c r="AD218" t="n">
         <v>486</v>
       </c>
     </row>
@@ -20635,9 +19979,6 @@
         <v>2.852551984555532</v>
       </c>
       <c r="AC219" t="n">
-        <v>146536275737.1412</v>
-      </c>
-      <c r="AD219" t="n">
         <v>407</v>
       </c>
     </row>
@@ -20727,9 +20068,6 @@
         <v>2.832961010360938</v>
       </c>
       <c r="AC220" t="n">
-        <v>147775967771.0812</v>
-      </c>
-      <c r="AD220" t="n">
         <v>367</v>
       </c>
     </row>
@@ -20819,9 +20157,6 @@
         <v>1.720484345351055</v>
       </c>
       <c r="AC221" t="n">
-        <v>165999407630.7888</v>
-      </c>
-      <c r="AD221" t="n">
         <v>286</v>
       </c>
     </row>
@@ -20911,9 +20246,6 @@
         <v>2.944030914623139</v>
       </c>
       <c r="AC222" t="n">
-        <v>139330144174.2878</v>
-      </c>
-      <c r="AD222" t="n">
         <v>483.4807440606036</v>
       </c>
     </row>
@@ -21003,9 +20335,6 @@
         <v>3.282363842983093</v>
       </c>
       <c r="AC223" t="n">
-        <v>131354000093.3692</v>
-      </c>
-      <c r="AD223" t="n">
         <v>516</v>
       </c>
     </row>
@@ -21095,9 +20424,6 @@
         <v>3.282363842983093</v>
       </c>
       <c r="AC224" t="n">
-        <v>131354000093.3692</v>
-      </c>
-      <c r="AD224" t="n">
         <v>516</v>
       </c>
     </row>
@@ -21187,9 +20513,6 @@
         <v>3.187477360827372</v>
       </c>
       <c r="AC225" t="n">
-        <v>135200791807.3814</v>
-      </c>
-      <c r="AD225" t="n">
         <v>516</v>
       </c>
     </row>
@@ -21279,9 +20602,6 @@
         <v>0.8318443991682157</v>
       </c>
       <c r="AC226" t="n">
-        <v>162119229939.1663</v>
-      </c>
-      <c r="AD226" t="n">
         <v>460</v>
       </c>
     </row>
@@ -21371,9 +20691,6 @@
         <v>0.9760483705909806</v>
       </c>
       <c r="AC227" t="n">
-        <v>153054686161.1779</v>
-      </c>
-      <c r="AD227" t="n">
         <v>517</v>
       </c>
     </row>
@@ -21463,9 +20780,6 @@
         <v>1.019877172193018</v>
       </c>
       <c r="AC228" t="n">
-        <v>149191530352.6619</v>
-      </c>
-      <c r="AD228" t="n">
         <v>537</v>
       </c>
     </row>
@@ -21555,9 +20869,6 @@
         <v>0.5883651844121269</v>
       </c>
       <c r="AC229" t="n">
-        <v>155050386480.8942</v>
-      </c>
-      <c r="AD229" t="n">
         <v>585.6708793870272</v>
       </c>
     </row>
@@ -21647,9 +20958,6 @@
         <v>0.6847642540268101</v>
       </c>
       <c r="AC230" t="n">
-        <v>150672389440.0739</v>
-      </c>
-      <c r="AD230" t="n">
         <v>446.5190012770267</v>
       </c>
     </row>
@@ -21739,9 +21047,6 @@
         <v>0.799935163446407</v>
       </c>
       <c r="AC231" t="n">
-        <v>143203725235.7602</v>
-      </c>
-      <c r="AD231" t="n">
         <v>437.2715663393368</v>
       </c>
     </row>
@@ -21831,9 +21136,6 @@
         <v>0.4329703656669751</v>
       </c>
       <c r="AC232" t="n">
-        <v>160005376175.2799</v>
-      </c>
-      <c r="AD232" t="n">
         <v>480.8666167598749</v>
       </c>
     </row>
@@ -21923,9 +21225,6 @@
         <v>0.8306792425468988</v>
       </c>
       <c r="AC233" t="n">
-        <v>145173490702.7027</v>
-      </c>
-      <c r="AD233" t="n">
         <v>540</v>
       </c>
     </row>
@@ -22015,9 +21314,6 @@
         <v>0.7482940644992373</v>
       </c>
       <c r="AC234" t="n">
-        <v>134164590139.7812</v>
-      </c>
-      <c r="AD234" t="n">
         <v>482</v>
       </c>
     </row>
@@ -22107,9 +21403,6 @@
         <v>0.8291828732222071</v>
       </c>
       <c r="AC235" t="n">
-        <v>127709625187.2702</v>
-      </c>
-      <c r="AD235" t="n">
         <v>418</v>
       </c>
     </row>
@@ -22199,9 +21492,6 @@
         <v>0.7070797015795885</v>
       </c>
       <c r="AC236" t="n">
-        <v>130203927925.4424</v>
-      </c>
-      <c r="AD236" t="n">
         <v>563.9295664280853</v>
       </c>
     </row>
@@ -22291,9 +21581,6 @@
         <v>0.5871324229531407</v>
       </c>
       <c r="AC237" t="n">
-        <v>136830275530.2121</v>
-      </c>
-      <c r="AD237" t="n">
         <v>395</v>
       </c>
     </row>
@@ -22383,9 +21670,6 @@
         <v>0.6554900068296667</v>
       </c>
       <c r="AC238" t="n">
-        <v>141050924382.8559</v>
-      </c>
-      <c r="AD238" t="n">
         <v>480</v>
       </c>
     </row>
@@ -22475,9 +21759,6 @@
         <v>0.7064639260691428</v>
       </c>
       <c r="AC239" t="n">
-        <v>144926111190.2712</v>
-      </c>
-      <c r="AD239" t="n">
         <v>492</v>
       </c>
     </row>
@@ -22567,9 +21848,6 @@
         <v>0.7453671918430714</v>
       </c>
       <c r="AC240" t="n">
-        <v>148476874119.054</v>
-      </c>
-      <c r="AD240" t="n">
         <v>505</v>
       </c>
     </row>
@@ -22659,9 +21937,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC241" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD241" t="n">
         <v>335</v>
       </c>
     </row>
@@ -22751,9 +22026,6 @@
         <v>0.7453671918430714</v>
       </c>
       <c r="AC242" t="n">
-        <v>148476874119.054</v>
-      </c>
-      <c r="AD242" t="n">
         <v>505</v>
       </c>
     </row>
@@ -22843,9 +22115,6 @@
         <v>0.7999854812413173</v>
       </c>
       <c r="AC243" t="n">
-        <v>144162996023.7042</v>
-      </c>
-      <c r="AD243" t="n">
         <v>542</v>
       </c>
     </row>
@@ -22935,9 +22204,6 @@
         <v>0.7999469427396499</v>
       </c>
       <c r="AC244" t="n">
-        <v>138166366493.8295</v>
-      </c>
-      <c r="AD244" t="n">
         <v>672.007858670094</v>
       </c>
     </row>
@@ -23027,9 +22293,6 @@
         <v>0.7999469427396499</v>
       </c>
       <c r="AC245" t="n">
-        <v>138166366493.8295</v>
-      </c>
-      <c r="AD245" t="n">
         <v>736.0379443402721</v>
       </c>
     </row>
@@ -23119,9 +22382,6 @@
         <v>0.4969123741096553</v>
       </c>
       <c r="AC246" t="n">
-        <v>133338682216.2022</v>
-      </c>
-      <c r="AD246" t="n">
         <v>490</v>
       </c>
     </row>
@@ -23211,9 +22471,6 @@
         <v>0.4328911454491574</v>
       </c>
       <c r="AC247" t="n">
-        <v>118935864124.0347</v>
-      </c>
-      <c r="AD247" t="n">
         <v>301</v>
       </c>
     </row>
@@ -23303,9 +22560,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC248" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD248" t="n">
         <v>409.0889074816152</v>
       </c>
     </row>
@@ -23395,9 +22649,6 @@
         <v>0.4330085012905863</v>
       </c>
       <c r="AC249" t="n">
-        <v>115208313614.6662</v>
-      </c>
-      <c r="AD249" t="n">
         <v>385.6983757970798</v>
       </c>
     </row>
@@ -23487,9 +22738,6 @@
         <v>0.6152616107480038</v>
       </c>
       <c r="AC250" t="n">
-        <v>134840736437.8343</v>
-      </c>
-      <c r="AD250" t="n">
         <v>567.6163635562992</v>
       </c>
     </row>
@@ -23579,9 +22827,6 @@
         <v>0.6666909744208368</v>
       </c>
       <c r="AC251" t="n">
-        <v>139071746607.4965</v>
-      </c>
-      <c r="AD251" t="n">
         <v>648.6415077722488</v>
       </c>
     </row>
@@ -23671,9 +22916,6 @@
         <v>0.7056324035715177</v>
       </c>
       <c r="AC252" t="n">
-        <v>142939878339.3275</v>
-      </c>
-      <c r="AD252" t="n">
         <v>751.2440001761415</v>
       </c>
     </row>
@@ -23763,9 +23005,6 @@
         <v>0.7779868244143608</v>
       </c>
       <c r="AC253" t="n">
-        <v>152798972687.6797</v>
-      </c>
-      <c r="AD253" t="n">
         <v>658.7696507992425</v>
       </c>
     </row>
@@ -23855,9 +23094,6 @@
         <v>0.792448794308385</v>
       </c>
       <c r="AC254" t="n">
-        <v>155585587457.0012</v>
-      </c>
-      <c r="AD254" t="n">
         <v>705.8875335769959</v>
       </c>
     </row>
@@ -23947,9 +23183,6 @@
         <v>0.8039811198444791</v>
       </c>
       <c r="AC255" t="n">
-        <v>158225237179.2843</v>
-      </c>
-      <c r="AD255" t="n">
         <v>724.3824034523757</v>
       </c>
     </row>
@@ -24039,9 +23272,6 @@
         <v>0.8164596619435355</v>
       </c>
       <c r="AC256" t="n">
-        <v>161805537794.9116</v>
-      </c>
-      <c r="AD256" t="n">
         <v>777.2248888106037</v>
       </c>
     </row>
@@ -24131,9 +23361,6 @@
         <v>0.7482876820129676</v>
       </c>
       <c r="AC257" t="n">
-        <v>148164814717.2473</v>
-      </c>
-      <c r="AD257" t="n">
         <v>783.3898454357303</v>
       </c>
     </row>
@@ -24223,9 +23450,6 @@
         <v>0.8022247425147674</v>
       </c>
       <c r="AC258" t="n">
-        <v>146232988816.7612</v>
-      </c>
-      <c r="AD258" t="n">
         <v>640.7151349685147</v>
       </c>
     </row>
@@ -24315,9 +23539,6 @@
         <v>0.5525264940797675</v>
       </c>
       <c r="AC259" t="n">
-        <v>124067640375.4796</v>
-      </c>
-      <c r="AD259" t="n">
         <v>410.4099696155709</v>
       </c>
     </row>
@@ -24407,9 +23628,6 @@
         <v>0.644930501221385</v>
       </c>
       <c r="AC260" t="n">
-        <v>129958717071.5074</v>
-      </c>
-      <c r="AD260" t="n">
         <v>577.7445065832929</v>
       </c>
     </row>
@@ -24499,9 +23717,6 @@
         <v>0.7085637613321358</v>
       </c>
       <c r="AC261" t="n">
-        <v>135221901966.2082</v>
-      </c>
-      <c r="AD261" t="n">
         <v>572.9006120921221</v>
       </c>
     </row>
@@ -24591,9 +23806,6 @@
         <v>0.7545649265493504</v>
       </c>
       <c r="AC262" t="n">
-        <v>139961382869.2717</v>
-      </c>
-      <c r="AD262" t="n">
         <v>632.3484081201285</v>
       </c>
     </row>
@@ -24683,9 +23895,6 @@
         <v>0.8332099063587108</v>
       </c>
       <c r="AC263" t="n">
-        <v>151701845322.3357</v>
-      </c>
-      <c r="AD263" t="n">
         <v>705.8875335769959</v>
       </c>
     </row>
@@ -24775,9 +23984,6 @@
         <v>0.8474858934691297</v>
       </c>
       <c r="AC264" t="n">
-        <v>154955057813.6413</v>
-      </c>
-      <c r="AD264" t="n">
         <v>693.9979743713945</v>
       </c>
     </row>
@@ -24867,9 +24073,6 @@
         <v>0.4886171057744932</v>
       </c>
       <c r="AC265" t="n">
-        <v>120857918004.4193</v>
-      </c>
-      <c r="AD265" t="n">
         <v>381.3466026685455</v>
       </c>
     </row>
@@ -24959,9 +24162,6 @@
         <v>0.499999999265521</v>
       </c>
       <c r="AC266" t="n">
-        <v>127707662700.3277</v>
-      </c>
-      <c r="AD266" t="n">
         <v>486.1508652956977</v>
       </c>
     </row>
@@ -25051,9 +24251,6 @@
         <v>1.87478553243648</v>
       </c>
       <c r="AC267" t="n">
-        <v>175239198687.5454</v>
-      </c>
-      <c r="AD267" t="n">
         <v>267</v>
       </c>
     </row>
@@ -25143,9 +24340,6 @@
         <v>1.874039502898608</v>
       </c>
       <c r="AC268" t="n">
-        <v>177726812799.5166</v>
-      </c>
-      <c r="AD268" t="n">
         <v>402</v>
       </c>
     </row>
@@ -25235,9 +24429,6 @@
         <v>1.870153681946352</v>
       </c>
       <c r="AC269" t="n">
-        <v>179997472629.3888</v>
-      </c>
-      <c r="AD269" t="n">
         <v>557</v>
       </c>
     </row>
@@ -25327,9 +24518,6 @@
         <v>1.863357176780493</v>
       </c>
       <c r="AC270" t="n">
-        <v>182085751300.3877</v>
-      </c>
-      <c r="AD270" t="n">
         <v>606</v>
       </c>
     </row>
@@ -25419,9 +24607,6 @@
         <v>1.876517571873118</v>
       </c>
       <c r="AC271" t="n">
-        <v>183846010313.7434</v>
-      </c>
-      <c r="AD271" t="n">
         <v>602</v>
       </c>
     </row>
@@ -25511,9 +24696,6 @@
         <v>1.892143401382752</v>
       </c>
       <c r="AC272" t="n">
-        <v>183703441700.6569</v>
-      </c>
-      <c r="AD272" t="n">
         <v>538</v>
       </c>
     </row>
@@ -25603,9 +24785,6 @@
         <v>1.903301519091012</v>
       </c>
       <c r="AC273" t="n">
-        <v>183568557216.1147</v>
-      </c>
-      <c r="AD273" t="n">
         <v>520</v>
       </c>
     </row>
@@ -25695,9 +24874,6 @@
         <v>1.910495919875874</v>
       </c>
       <c r="AC274" t="n">
-        <v>183449627884.7953</v>
-      </c>
-      <c r="AD274" t="n">
         <v>510</v>
       </c>
     </row>
@@ -25787,9 +24963,6 @@
         <v>1.914877313683591</v>
       </c>
       <c r="AC275" t="n">
-        <v>183332440361.9753</v>
-      </c>
-      <c r="AD275" t="n">
         <v>382</v>
       </c>
     </row>
@@ -25879,9 +25052,6 @@
         <v>1.854703424213679</v>
       </c>
       <c r="AC276" t="n">
-        <v>184000414772.2289</v>
-      </c>
-      <c r="AD276" t="n">
         <v>625</v>
       </c>
     </row>
@@ -25971,9 +25141,6 @@
         <v>1.87087411334769</v>
       </c>
       <c r="AC277" t="n">
-        <v>172499783060.3708</v>
-      </c>
-      <c r="AD277" t="n">
         <v>238</v>
       </c>
     </row>
@@ -26063,9 +25230,6 @@
         <v>2.340355450752809</v>
       </c>
       <c r="AC278" t="n">
-        <v>151319612282.0403</v>
-      </c>
-      <c r="AD278" t="n">
         <v>892.0621868635062</v>
       </c>
     </row>
@@ -26155,9 +25319,6 @@
         <v>2.38459495488951</v>
       </c>
       <c r="AC279" t="n">
-        <v>150182385819.8293</v>
-      </c>
-      <c r="AD279" t="n">
         <v>722.3530948962687</v>
       </c>
     </row>
@@ -26247,9 +25408,6 @@
         <v>2.507128492984159</v>
       </c>
       <c r="AC280" t="n">
-        <v>146607676133.4592</v>
-      </c>
-      <c r="AD280" t="n">
         <v>611.4101173427996</v>
       </c>
     </row>
@@ -26339,9 +25497,6 @@
         <v>2.291295825846881</v>
       </c>
       <c r="AC281" t="n">
-        <v>152500594677.3292</v>
-      </c>
-      <c r="AD281" t="n">
         <v>549.0554920970246</v>
       </c>
     </row>
@@ -26431,9 +25586,6 @@
         <v>2.040620966020785</v>
       </c>
       <c r="AC282" t="n">
-        <v>144150528052.1545</v>
-      </c>
-      <c r="AD282" t="n">
         <v>241</v>
       </c>
     </row>
@@ -26523,9 +25675,6 @@
         <v>1.876838251213116</v>
       </c>
       <c r="AC283" t="n">
-        <v>145440073903.0116</v>
-      </c>
-      <c r="AD283" t="n">
         <v>166</v>
       </c>
     </row>
@@ -26615,9 +25764,6 @@
         <v>2.339105020545805</v>
       </c>
       <c r="AC284" t="n">
-        <v>157816364024.7777</v>
-      </c>
-      <c r="AD284" t="n">
         <v>170.8573693249373</v>
       </c>
     </row>
@@ -26707,9 +25853,6 @@
         <v>2.996570760682579</v>
       </c>
       <c r="AC285" t="n">
-        <v>140287856344.2604</v>
-      </c>
-      <c r="AD285" t="n">
         <v>713.3735523360782</v>
       </c>
     </row>
@@ -26799,9 +25942,6 @@
         <v>2.672029675941108</v>
       </c>
       <c r="AC286" t="n">
-        <v>150996179303.765</v>
-      </c>
-      <c r="AD286" t="n">
         <v>417.4556343300013</v>
       </c>
     </row>
@@ -26891,9 +26031,6 @@
         <v>0.8291737718735968</v>
       </c>
       <c r="AC287" t="n">
-        <v>128995344906.7779</v>
-      </c>
-      <c r="AD287" t="n">
         <v>474.0143284775385</v>
       </c>
     </row>
@@ -26983,9 +26120,6 @@
         <v>0.7484200495034554</v>
       </c>
       <c r="AC288" t="n">
-        <v>117367322869.4919</v>
-      </c>
-      <c r="AD288" t="n">
         <v>662.4354458357303</v>
       </c>
     </row>
@@ -27075,9 +26209,6 @@
         <v>0.8198644557655942</v>
       </c>
       <c r="AC289" t="n">
-        <v>127586384555.1802</v>
-      </c>
-      <c r="AD289" t="n">
         <v>560.6713604266208</v>
       </c>
     </row>
@@ -27167,9 +26298,6 @@
         <v>0.8065300628156985</v>
       </c>
       <c r="AC290" t="n">
-        <v>125580895500.3334</v>
-      </c>
-      <c r="AD290" t="n">
         <v>592.9401356010662</v>
       </c>
     </row>
@@ -27259,9 +26387,6 @@
         <v>0.7856869619702185</v>
       </c>
       <c r="AC291" t="n">
-        <v>122532851389.1139</v>
-      </c>
-      <c r="AD291" t="n">
         <v>653.9257563080716</v>
       </c>
     </row>
@@ -27351,9 +26476,6 @@
         <v>0.7158283304733458</v>
       </c>
       <c r="AC292" t="n">
-        <v>113141972249.4789</v>
-      </c>
-      <c r="AD292" t="n">
         <v>645.3528421882725</v>
       </c>
     </row>
@@ -27443,9 +26565,6 @@
         <v>1.500005892401469</v>
       </c>
       <c r="AC293" t="n">
-        <v>184995794595.9078</v>
-      </c>
-      <c r="AD293" t="n">
         <v>563.0428747074922</v>
       </c>
     </row>
@@ -27535,9 +26654,6 @@
         <v>1.673260526413867</v>
       </c>
       <c r="AC294" t="n">
-        <v>169998377661.2375</v>
-      </c>
-      <c r="AD294" t="n">
         <v>435.0136834172847</v>
       </c>
     </row>
@@ -27627,9 +26743,6 @@
         <v>1.557595867575718</v>
       </c>
       <c r="AC295" t="n">
-        <v>181430927303.5811</v>
-      </c>
-      <c r="AD295" t="n">
         <v>755.8005790663545</v>
       </c>
     </row>
@@ -27719,9 +26832,6 @@
         <v>1.600673916337102</v>
       </c>
       <c r="AC296" t="n">
-        <v>178184331385.8537</v>
-      </c>
-      <c r="AD296" t="n">
         <v>702.5344068536073</v>
       </c>
     </row>
@@ -27811,9 +26921,6 @@
         <v>1.617884218088266</v>
       </c>
       <c r="AC297" t="n">
-        <v>176670668003.3391</v>
-      </c>
-      <c r="AD297" t="n">
         <v>638.2421766549003</v>
       </c>
     </row>
@@ -27903,9 +27010,6 @@
         <v>0.7999666868006038</v>
       </c>
       <c r="AC298" t="n">
-        <v>124168458605.054</v>
-      </c>
-      <c r="AD298" t="n">
         <v>699.1741560111208</v>
       </c>
     </row>
@@ -27995,9 +27099,6 @@
         <v>0.7999666868006038</v>
       </c>
       <c r="AC299" t="n">
-        <v>124168458605.054</v>
-      </c>
-      <c r="AD299" t="n">
         <v>686.4664670901493</v>
       </c>
     </row>
@@ -28087,9 +27188,6 @@
         <v>0.7999666868006038</v>
       </c>
       <c r="AC300" t="n">
-        <v>124168458605.054</v>
-      </c>
-      <c r="AD300" t="n">
         <v>666.0118706407309</v>
       </c>
     </row>
@@ -28179,9 +27277,6 @@
         <v>0.7999666868006038</v>
       </c>
       <c r="AC301" t="n">
-        <v>124168458605.054</v>
-      </c>
-      <c r="AD301" t="n">
         <v>633.3577660286885</v>
       </c>
     </row>
@@ -28271,9 +27366,6 @@
         <v>0.4898989619778088</v>
       </c>
       <c r="AC302" t="n">
-        <v>124165708105.9983</v>
-      </c>
-      <c r="AD302" t="n">
         <v>545.8644753237272</v>
       </c>
     </row>
@@ -28363,9 +27455,6 @@
         <v>0.4898989619778088</v>
       </c>
       <c r="AC303" t="n">
-        <v>124165708105.9983</v>
-      </c>
-      <c r="AD303" t="n">
         <v>552.1281898096988</v>
       </c>
     </row>
@@ -28455,9 +27544,6 @@
         <v>0.4898989619778088</v>
       </c>
       <c r="AC304" t="n">
-        <v>124165708105.9983</v>
-      </c>
-      <c r="AD304" t="n">
         <v>541.1299139670315</v>
       </c>
     </row>
@@ -28547,9 +27633,6 @@
         <v>0.4898989619778088</v>
       </c>
       <c r="AC305" t="n">
-        <v>124165708105.9983</v>
-      </c>
-      <c r="AD305" t="n">
         <v>519.4733691180217</v>
       </c>
     </row>
@@ -28639,9 +27722,6 @@
         <v>0.4898989619778088</v>
       </c>
       <c r="AC306" t="n">
-        <v>124165708105.9983</v>
-      </c>
-      <c r="AD306" t="n">
         <v>547.73522463681</v>
       </c>
     </row>
@@ -28731,9 +27811,6 @@
         <v>0.5725161988812274</v>
       </c>
       <c r="AC307" t="n">
-        <v>203515301770.7234</v>
-      </c>
-      <c r="AD307" t="n">
         <v>715</v>
       </c>
     </row>
@@ -28823,9 +27900,6 @@
         <v>0.6153207754876441</v>
       </c>
       <c r="AC308" t="n">
-        <v>200685644864.6353</v>
-      </c>
-      <c r="AD308" t="n">
         <v>780</v>
       </c>
     </row>
@@ -28915,9 +27989,6 @@
         <v>0.4866757764914357</v>
       </c>
       <c r="AC309" t="n">
-        <v>151093606673.7695</v>
-      </c>
-      <c r="AD309" t="n">
         <v>372.0991677308556</v>
       </c>
     </row>
@@ -29007,9 +28078,6 @@
         <v>0.6937276838439976</v>
       </c>
       <c r="AC310" t="n">
-        <v>128094107215.542</v>
-      </c>
-      <c r="AD310" t="n">
         <v>494</v>
       </c>
     </row>
@@ -29099,9 +28167,6 @@
         <v>0.6849886413432179</v>
       </c>
       <c r="AC311" t="n">
-        <v>126857578222.4006</v>
-      </c>
-      <c r="AD311" t="n">
         <v>524</v>
       </c>
     </row>
@@ -29191,9 +28256,6 @@
         <v>0.6761893336045527</v>
       </c>
       <c r="AC312" t="n">
-        <v>125707310841.7835</v>
-      </c>
-      <c r="AD312" t="n">
         <v>580</v>
       </c>
     </row>
@@ -29283,9 +28345,6 @@
         <v>0.6675628275381356</v>
       </c>
       <c r="AC313" t="n">
-        <v>124660002691.8857</v>
-      </c>
-      <c r="AD313" t="n">
         <v>640</v>
       </c>
     </row>
@@ -29375,9 +28434,6 @@
         <v>0.7070797015795885</v>
       </c>
       <c r="AC314" t="n">
-        <v>130203927925.4424</v>
-      </c>
-      <c r="AD314" t="n">
         <v>400</v>
       </c>
     </row>
@@ -29467,9 +28523,6 @@
         <v>0.4582902129440801</v>
       </c>
       <c r="AC315" t="n">
-        <v>121212858595.6045</v>
-      </c>
-      <c r="AD315" t="n">
         <v>506.4071513496851</v>
       </c>
     </row>
@@ -29559,9 +28612,6 @@
         <v>0.4582902129440801</v>
       </c>
       <c r="AC316" t="n">
-        <v>121212858595.6045</v>
-      </c>
-      <c r="AD316" t="n">
         <v>484.3894491170901</v>
       </c>
     </row>
@@ -29651,9 +28701,6 @@
         <v>0.4582902129440801</v>
       </c>
       <c r="AC317" t="n">
-        <v>121212858595.6045</v>
-      </c>
-      <c r="AD317" t="n">
         <v>391.9150997401911</v>
       </c>
     </row>
@@ -29743,9 +28790,6 @@
         <v>0.6898868784185458</v>
       </c>
       <c r="AC318" t="n">
-        <v>143025196294.476</v>
-      </c>
-      <c r="AD318" t="n">
         <v>755.8200022898131</v>
       </c>
     </row>
@@ -29835,9 +28879,6 @@
         <v>0.6848982993885132</v>
       </c>
       <c r="AC319" t="n">
-        <v>141108697395.5178</v>
-      </c>
-      <c r="AD319" t="n">
         <v>800.389270320738</v>
       </c>
     </row>
@@ -29927,9 +28968,6 @@
         <v>0.6794516885151363</v>
       </c>
       <c r="AC320" t="n">
-        <v>139356078333.4298</v>
-      </c>
-      <c r="AD320" t="n">
         <v>914.4696721997191</v>
       </c>
     </row>
@@ -30019,9 +29057,6 @@
         <v>0.695981250889095</v>
       </c>
       <c r="AC321" t="n">
-        <v>146254092664.8723</v>
-      </c>
-      <c r="AD321" t="n">
         <v>554.8460962613941</v>
       </c>
     </row>
@@ -30111,9 +29146,6 @@
         <v>0.5999990048240694</v>
       </c>
       <c r="AC322" t="n">
-        <v>134067105396.5542</v>
-      </c>
-      <c r="AD322" t="n">
         <v>747.116927597382</v>
       </c>
     </row>
@@ -30203,9 +29235,6 @@
         <v>0.8313031943174679</v>
       </c>
       <c r="AC323" t="n">
-        <v>134188725935.4978</v>
-      </c>
-      <c r="AD323" t="n">
         <v>1005.259575226067</v>
       </c>
     </row>
@@ -30295,9 +29324,6 @@
         <v>0.9000306058123911</v>
       </c>
       <c r="AC324" t="n">
-        <v>128370036110.4324</v>
-      </c>
-      <c r="AD324" t="n">
         <v>953.7245552214129</v>
       </c>
     </row>
@@ -30387,9 +29413,6 @@
         <v>0.9428264527668768</v>
       </c>
       <c r="AC325" t="n">
-        <v>134763576748.7545</v>
-      </c>
-      <c r="AD325" t="n">
         <v>523.5394439376512</v>
       </c>
     </row>
@@ -30479,9 +29502,6 @@
         <v>0.7806544572823451</v>
       </c>
       <c r="AC326" t="n">
-        <v>122858291691.351</v>
-      </c>
-      <c r="AD326" t="n">
         <v>566.7865407844545</v>
       </c>
     </row>
@@ -30571,9 +29591,6 @@
         <v>0.4810357346550134</v>
       </c>
       <c r="AC327" t="n">
-        <v>121967034311.9879</v>
-      </c>
-      <c r="AD327" t="n">
         <v>646.0005711486097</v>
       </c>
     </row>
@@ -30663,9 +29680,6 @@
         <v>0.4810357346550134</v>
       </c>
       <c r="AC328" t="n">
-        <v>121967034311.9879</v>
-      </c>
-      <c r="AD328" t="n">
         <v>664.8965940749786</v>
       </c>
     </row>
@@ -30755,9 +29769,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC329" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD329" t="n">
         <v>551.4367275955715</v>
       </c>
     </row>
@@ -30847,9 +29858,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC330" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD330" t="n">
         <v>404.0839125379845</v>
       </c>
     </row>
@@ -30939,9 +29947,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC331" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD331" t="n">
         <v>398.0267782939572</v>
       </c>
     </row>
@@ -31031,9 +30036,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC332" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD332" t="n">
         <v>395.9562078320679</v>
       </c>
     </row>
@@ -31123,9 +30125,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC333" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD333" t="n">
         <v>421.1416280517958</v>
       </c>
     </row>
@@ -31215,9 +30214,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC334" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD334" t="n">
         <v>398.5204104099696</v>
       </c>
     </row>
@@ -31307,9 +30303,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC335" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD335" t="n">
         <v>391.9150997401911</v>
       </c>
     </row>
@@ -31399,9 +30392,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC336" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD336" t="n">
         <v>353.250135347347</v>
       </c>
     </row>
@@ -31491,9 +30481,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC337" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD337" t="n">
         <v>351.8400959524355</v>
       </c>
     </row>
@@ -31583,9 +30570,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC338" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD338" t="n">
         <v>352.8768919367559</v>
       </c>
     </row>
@@ -31675,9 +30659,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC339" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD339" t="n">
         <v>337.43356922679</v>
       </c>
     </row>
@@ -31767,9 +30748,6 @@
         <v>0.8111263418399931</v>
       </c>
       <c r="AC340" t="n">
-        <v>170268685572.1876</v>
-      </c>
-      <c r="AD340" t="n">
         <v>472.4904236880246</v>
       </c>
     </row>
@@ -31859,9 +30837,6 @@
         <v>0.9425492911442132</v>
       </c>
       <c r="AC341" t="n">
-        <v>162090951103.6281</v>
-      </c>
-      <c r="AD341" t="n">
         <v>416.6649339577131</v>
       </c>
     </row>
@@ -31951,9 +30926,6 @@
         <v>1.019779551419536</v>
       </c>
       <c r="AC342" t="n">
-        <v>155201335040.5253</v>
-      </c>
-      <c r="AD342" t="n">
         <v>291.5162812834649</v>
       </c>
     </row>
@@ -32043,9 +31015,6 @@
         <v>0.7071053037769649</v>
       </c>
       <c r="AC343" t="n">
-        <v>175000908284.6711</v>
-      </c>
-      <c r="AD343" t="n">
         <v>557.179459216555</v>
       </c>
     </row>
@@ -32135,9 +31104,6 @@
         <v>0.4999999999842235</v>
       </c>
       <c r="AC344" t="n">
-        <v>137709690090.9278</v>
-      </c>
-      <c r="AD344" t="n">
         <v>847.3276878232039</v>
       </c>
     </row>
@@ -32227,9 +31193,6 @@
         <v>0.3727008083702338</v>
       </c>
       <c r="AC345" t="n">
-        <v>114120670967.5934</v>
-      </c>
-      <c r="AD345" t="n">
         <v>394.2830528347814</v>
       </c>
     </row>
@@ -32319,9 +31282,6 @@
         <v>0.4330303462260493</v>
       </c>
       <c r="AC346" t="n">
-        <v>122710131835.1345</v>
-      </c>
-      <c r="AD346" t="n">
         <v>627.7311266353179</v>
       </c>
     </row>
@@ -32411,9 +31371,6 @@
         <v>0.6000396682561545</v>
       </c>
       <c r="AC347" t="n">
-        <v>220569865568.2461</v>
-      </c>
-      <c r="AD347" t="n">
         <v>478.3</v>
       </c>
     </row>
@@ -32503,9 +31460,6 @@
         <v>0.6665476384153608</v>
       </c>
       <c r="AC348" t="n">
-        <v>214451918256.1102</v>
-      </c>
-      <c r="AD348" t="n">
         <v>481.2</v>
       </c>
     </row>
@@ -32595,9 +31549,6 @@
         <v>0.713939096638483</v>
       </c>
       <c r="AC349" t="n">
-        <v>208941930162.1751</v>
-      </c>
-      <c r="AD349" t="n">
         <v>495.6</v>
       </c>
     </row>
@@ -32687,9 +31638,6 @@
         <v>0.7483466704777214</v>
       </c>
       <c r="AC350" t="n">
-        <v>203990246374.164</v>
-      </c>
-      <c r="AD350" t="n">
         <v>507.5</v>
       </c>
     </row>
@@ -32779,9 +31727,6 @@
         <v>0.4999999990692543</v>
       </c>
       <c r="AC351" t="n">
-        <v>227504154586.0995</v>
-      </c>
-      <c r="AD351" t="n">
         <v>446.9566481913521</v>
       </c>
     </row>
@@ -32871,9 +31816,6 @@
         <v>0.687217651376634</v>
       </c>
       <c r="AC352" t="n">
-        <v>196657636555.305</v>
-      </c>
-      <c r="AD352" t="n">
         <v>756.9608830688467</v>
       </c>
     </row>
@@ -32963,9 +31905,6 @@
         <v>0.7483466704777214</v>
       </c>
       <c r="AC353" t="n">
-        <v>203990246374.164</v>
-      </c>
-      <c r="AD353" t="n">
         <v>693.3100838227625</v>
       </c>
     </row>
@@ -33055,9 +31994,6 @@
         <v>0.7482904201672519</v>
       </c>
       <c r="AC354" t="n">
-        <v>156156589058.041</v>
-      </c>
-      <c r="AD354" t="n">
         <v>612.0921220661411</v>
       </c>
     </row>
@@ -33147,9 +32083,6 @@
         <v>0.7482904201672519</v>
       </c>
       <c r="AC355" t="n">
-        <v>156156589058.041</v>
-      </c>
-      <c r="AD355" t="n">
         <v>480.1671990756593</v>
       </c>
     </row>
@@ -33239,9 +32172,6 @@
         <v>0.7482904201672519</v>
       </c>
       <c r="AC356" t="n">
-        <v>156156589058.041</v>
-      </c>
-      <c r="AD356" t="n">
         <v>590.2934790730276</v>
       </c>
     </row>
@@ -33331,9 +32261,6 @@
         <v>0.4898877146783077</v>
       </c>
       <c r="AC357" t="n">
-        <v>213994378999.5016</v>
-      </c>
-      <c r="AD357" t="n">
         <v>1263.636075251565</v>
       </c>
     </row>
@@ -33423,9 +32350,6 @@
         <v>0.4329703656669751</v>
       </c>
       <c r="AC358" t="n">
-        <v>160005376175.2799</v>
-      </c>
-      <c r="AD358" t="n">
         <v>424.9416530890836</v>
       </c>
     </row>
@@ -33515,9 +32439,6 @@
         <v>0.6324616106040688</v>
       </c>
       <c r="AC359" t="n">
-        <v>190003044402.6971</v>
-      </c>
-      <c r="AD359" t="n">
         <v>669.6100834785203</v>
       </c>
     </row>
@@ -33607,9 +32528,6 @@
         <v>0.4329716301684921</v>
       </c>
       <c r="AC360" t="n">
-        <v>209989013858.56</v>
-      </c>
-      <c r="AD360" t="n">
         <v>673.998516391282</v>
       </c>
     </row>
@@ -33699,9 +32617,6 @@
         <v>0.9166268084409301</v>
       </c>
       <c r="AC361" t="n">
-        <v>133595488407.5784</v>
-      </c>
-      <c r="AD361" t="n">
         <v>632.1648821493515</v>
       </c>
     </row>
@@ -33791,9 +32706,6 @@
         <v>0.9166268084409301</v>
       </c>
       <c r="AC362" t="n">
-        <v>133595488407.5784</v>
-      </c>
-      <c r="AD362" t="n">
         <v>546.0390153683561</v>
       </c>
     </row>
@@ -33883,9 +32795,6 @@
         <v>0.9558149777603937</v>
       </c>
       <c r="AC363" t="n">
-        <v>132440777205.8689</v>
-      </c>
-      <c r="AD363" t="n">
         <v>569.8139944899629</v>
       </c>
     </row>
@@ -33975,9 +32884,6 @@
         <v>1.052393629053187</v>
       </c>
       <c r="AC364" t="n">
-        <v>137444831239.8894</v>
-      </c>
-      <c r="AD364" t="n">
         <v>711.4286101866935</v>
       </c>
     </row>
@@ -34067,9 +32973,6 @@
         <v>1.019856281523796</v>
       </c>
       <c r="AC365" t="n">
-        <v>135198536953.2968</v>
-      </c>
-      <c r="AD365" t="n">
         <v>652.6217054317804</v>
       </c>
     </row>
@@ -34159,9 +33062,6 @@
         <v>0.8291737718735968</v>
       </c>
       <c r="AC366" t="n">
-        <v>128995344906.7779</v>
-      </c>
-      <c r="AD366" t="n">
         <v>474.0143284775385</v>
       </c>
     </row>
@@ -34251,9 +33151,6 @@
         <v>1.383567356043695</v>
       </c>
       <c r="AC367" t="n">
-        <v>155404597939.0128</v>
-      </c>
-      <c r="AD367" t="n">
         <v>155.8853318067726</v>
       </c>
     </row>
@@ -34343,9 +33240,6 @@
         <v>1.61153652560045</v>
       </c>
       <c r="AC368" t="n">
-        <v>152407052927.7501</v>
-      </c>
-      <c r="AD368" t="n">
         <v>242.1947245585451</v>
       </c>
     </row>
@@ -34435,9 +33329,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC369" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD369" t="n">
         <v>607.6885816196221</v>
       </c>
     </row>
@@ -34527,9 +33418,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC370" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD370" t="n">
         <v>629.7062838522171</v>
       </c>
     </row>
@@ -34619,9 +33507,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC371" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD371" t="n">
         <v>744.1983354617112</v>
       </c>
     </row>
@@ -34711,9 +33596,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC372" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD372" t="n">
         <v>537.2319344753181</v>
       </c>
     </row>
@@ -34803,9 +33685,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC373" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD373" t="n">
         <v>638.5133647452551</v>
       </c>
     </row>
@@ -34895,9 +33774,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC374" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD374" t="n">
         <v>383.5795398212732</v>
       </c>
     </row>
@@ -34987,9 +33863,6 @@
         <v>2.098426053205936</v>
       </c>
       <c r="AC375" t="n">
-        <v>160601013108.8619</v>
-      </c>
-      <c r="AD375" t="n">
         <v>433.2069149462983</v>
       </c>
     </row>
@@ -35079,9 +33952,6 @@
         <v>2.098426053205936</v>
       </c>
       <c r="AC376" t="n">
-        <v>160601013108.8619</v>
-      </c>
-      <c r="AD376" t="n">
         <v>513.4528160641155</v>
       </c>
     </row>
@@ -35171,9 +34041,6 @@
         <v>1.445056590354793</v>
       </c>
       <c r="AC377" t="n">
-        <v>180002925048.7919</v>
-      </c>
-      <c r="AD377" t="n">
         <v>568.2697338269297</v>
       </c>
     </row>
@@ -35263,9 +34130,6 @@
         <v>1.445056590354793</v>
       </c>
       <c r="AC378" t="n">
-        <v>180002925048.7919</v>
-      </c>
-      <c r="AD378" t="n">
         <v>536.5566888451142</v>
       </c>
     </row>
@@ -35355,9 +34219,6 @@
         <v>1.445056590354793</v>
       </c>
       <c r="AC379" t="n">
-        <v>180002925048.7919</v>
-      </c>
-      <c r="AD379" t="n">
         <v>474.0316628443063</v>
       </c>
     </row>
@@ -35447,9 +34308,6 @@
         <v>1.445056590354793</v>
       </c>
       <c r="AC380" t="n">
-        <v>180002925048.7919</v>
-      </c>
-      <c r="AD380" t="n">
         <v>430.3182147690387</v>
       </c>
     </row>
@@ -35539,9 +34397,6 @@
         <v>1.445056590354793</v>
       </c>
       <c r="AC381" t="n">
-        <v>180002925048.7919</v>
-      </c>
-      <c r="AD381" t="n">
         <v>399.4172564890905</v>
       </c>
     </row>
@@ -35631,9 +34486,6 @@
         <v>2.185687888071887</v>
       </c>
       <c r="AC382" t="n">
-        <v>163396722232.0912</v>
-      </c>
-      <c r="AD382" t="n">
         <v>168</v>
       </c>
     </row>
@@ -35723,9 +34575,6 @@
         <v>2.185687888071887</v>
       </c>
       <c r="AC383" t="n">
-        <v>163396722232.0912</v>
-      </c>
-      <c r="AD383" t="n">
         <v>328</v>
       </c>
     </row>
@@ -35815,9 +34664,6 @@
         <v>2.185687888071887</v>
       </c>
       <c r="AC384" t="n">
-        <v>163396722232.0912</v>
-      </c>
-      <c r="AD384" t="n">
         <v>206</v>
       </c>
     </row>
@@ -35907,9 +34753,6 @@
         <v>2.205230423878886</v>
       </c>
       <c r="AC385" t="n">
-        <v>163487121313.6926</v>
-      </c>
-      <c r="AD385" t="n">
         <v>231</v>
       </c>
     </row>
@@ -35999,9 +34842,6 @@
         <v>2.205230423878886</v>
       </c>
       <c r="AC386" t="n">
-        <v>163487121313.6926</v>
-      </c>
-      <c r="AD386" t="n">
         <v>178</v>
       </c>
     </row>
@@ -36091,9 +34931,6 @@
         <v>2.205230423878886</v>
       </c>
       <c r="AC387" t="n">
-        <v>163487121313.6926</v>
-      </c>
-      <c r="AD387" t="n">
         <v>343</v>
       </c>
     </row>
@@ -36183,9 +35020,6 @@
         <v>2.205230423878886</v>
       </c>
       <c r="AC388" t="n">
-        <v>163487121313.6926</v>
-      </c>
-      <c r="AD388" t="n">
         <v>171</v>
       </c>
     </row>
@@ -36275,9 +35109,6 @@
         <v>2.338122078927257</v>
       </c>
       <c r="AC389" t="n">
-        <v>162291730253.6789</v>
-      </c>
-      <c r="AD389" t="n">
         <v>343</v>
       </c>
     </row>
@@ -36367,9 +35198,6 @@
         <v>2.338122078927257</v>
       </c>
       <c r="AC390" t="n">
-        <v>162291730253.6789</v>
-      </c>
-      <c r="AD390" t="n">
         <v>341</v>
       </c>
     </row>
@@ -36459,9 +35287,6 @@
         <v>2.338122078927257</v>
       </c>
       <c r="AC391" t="n">
-        <v>162291730253.6789</v>
-      </c>
-      <c r="AD391" t="n">
         <v>345</v>
       </c>
     </row>
@@ -36551,9 +35376,6 @@
         <v>2.338122078927257</v>
       </c>
       <c r="AC392" t="n">
-        <v>162291730253.6789</v>
-      </c>
-      <c r="AD392" t="n">
         <v>345</v>
       </c>
     </row>
@@ -36643,9 +35465,6 @@
         <v>2.540947489417832</v>
       </c>
       <c r="AC393" t="n">
-        <v>148587332527.5353</v>
-      </c>
-      <c r="AD393" t="n">
         <v>339.0726143819631</v>
       </c>
     </row>
@@ -36735,9 +35554,6 @@
         <v>2.585917379363751</v>
       </c>
       <c r="AC394" t="n">
-        <v>146504396335.2279</v>
-      </c>
-      <c r="AD394" t="n">
         <v>371.3065304504822</v>
       </c>
     </row>
@@ -36827,9 +35643,6 @@
         <v>2.62649309237822</v>
       </c>
       <c r="AC395" t="n">
-        <v>144359543942.5964</v>
-      </c>
-      <c r="AD395" t="n">
         <v>459.7296226165837</v>
       </c>
     </row>
@@ -36919,9 +35732,6 @@
         <v>2.649135840005512</v>
       </c>
       <c r="AC396" t="n">
-        <v>143015836535.7893</v>
-      </c>
-      <c r="AD396" t="n">
         <v>399.313047690343</v>
       </c>
     </row>
@@ -37011,9 +35821,6 @@
         <v>2.671658191974477</v>
       </c>
       <c r="AC397" t="n">
-        <v>141526111425.1336</v>
-      </c>
-      <c r="AD397" t="n">
         <v>494.4295213351534</v>
       </c>
     </row>
@@ -37103,9 +35910,6 @@
         <v>1.414148363551082</v>
       </c>
       <c r="AC398" t="n">
-        <v>162001658513.0712</v>
-      </c>
-      <c r="AD398" t="n">
         <v>101.281430269937</v>
       </c>
     </row>
@@ -37195,9 +35999,6 @@
         <v>1.525558458046819</v>
       </c>
       <c r="AC399" t="n">
-        <v>161900487718.8614</v>
-      </c>
-      <c r="AD399" t="n">
         <v>88.07080893038003</v>
       </c>
     </row>
@@ -37287,9 +36088,6 @@
         <v>1.600655735886357</v>
       </c>
       <c r="AC400" t="n">
-        <v>161819471007.9024</v>
-      </c>
-      <c r="AD400" t="n">
         <v>273.0195076841781</v>
       </c>
     </row>
@@ -37379,9 +36177,6 @@
         <v>1.664431966859816</v>
       </c>
       <c r="AC401" t="n">
-        <v>161735724000.8807</v>
-      </c>
-      <c r="AD401" t="n">
         <v>343.4761548284821</v>
       </c>
     </row>
@@ -37471,9 +36266,6 @@
         <v>1.707778014386765</v>
       </c>
       <c r="AC402" t="n">
-        <v>161666654868.85</v>
-      </c>
-      <c r="AD402" t="n">
         <v>748.6018759082302</v>
       </c>
     </row>
@@ -37563,9 +36355,6 @@
         <v>1.871135495115581</v>
       </c>
       <c r="AC403" t="n">
-        <v>168771507319.4621</v>
-      </c>
-      <c r="AD403" t="n">
         <v>366.1365734639712</v>
       </c>
     </row>
@@ -37655,9 +36444,6 @@
         <v>2.185687888071887</v>
       </c>
       <c r="AC404" t="n">
-        <v>163396722232.0912</v>
-      </c>
-      <c r="AD404" t="n">
         <v>169.6276684731603</v>
       </c>
     </row>
@@ -37747,9 +36533,6 @@
         <v>2.185687888071887</v>
       </c>
       <c r="AC405" t="n">
-        <v>163396722232.0912</v>
-      </c>
-      <c r="AD405" t="n">
         <v>152.7479074812607</v>
       </c>
     </row>
@@ -37839,9 +36622,6 @@
         <v>2.339105020545805</v>
       </c>
       <c r="AC406" t="n">
-        <v>157816364024.7777</v>
-      </c>
-      <c r="AD406" t="n">
         <v>549.2364681256877</v>
       </c>
     </row>
@@ -37931,9 +36711,6 @@
         <v>2.339105020545805</v>
       </c>
       <c r="AC407" t="n">
-        <v>157816364024.7777</v>
-      </c>
-      <c r="AD407" t="n">
         <v>561.6629124037754</v>
       </c>
     </row>
@@ -38023,9 +36800,6 @@
         <v>2.339105020545805</v>
       </c>
       <c r="AC408" t="n">
-        <v>157816364024.7777</v>
-      </c>
-      <c r="AD408" t="n">
         <v>299.780276902301</v>
       </c>
     </row>
@@ -38115,9 +36889,6 @@
         <v>2.672029675941108</v>
       </c>
       <c r="AC409" t="n">
-        <v>150996179303.765</v>
-      </c>
-      <c r="AD409" t="n">
         <v>330.6050600279341</v>
       </c>
     </row>
@@ -38207,9 +36978,6 @@
         <v>2.672029675941108</v>
       </c>
       <c r="AC410" t="n">
-        <v>150996179303.765</v>
-      </c>
-      <c r="AD410" t="n">
         <v>461.0072658731744</v>
       </c>
     </row>
@@ -38299,9 +37067,6 @@
         <v>2.491571248477211</v>
       </c>
       <c r="AC411" t="n">
-        <v>158036061004.7613</v>
-      </c>
-      <c r="AD411" t="n">
         <v>556.1671583953498</v>
       </c>
     </row>
@@ -38391,9 +37156,6 @@
         <v>2.491571248477211</v>
       </c>
       <c r="AC412" t="n">
-        <v>158036061004.7613</v>
-      </c>
-      <c r="AD412" t="n">
         <v>508.1685675282927</v>
       </c>
     </row>
@@ -38483,9 +37245,6 @@
         <v>2.491571248477211</v>
       </c>
       <c r="AC413" t="n">
-        <v>158036061004.7613</v>
-      </c>
-      <c r="AD413" t="n">
         <v>656.1275265313311</v>
       </c>
     </row>
@@ -38575,9 +37334,6 @@
         <v>1.414148363551082</v>
       </c>
       <c r="AC414" t="n">
-        <v>162001658513.0712</v>
-      </c>
-      <c r="AD414" t="n">
         <v>130.2</v>
       </c>
     </row>
@@ -38667,9 +37423,6 @@
         <v>1.414148363551082</v>
       </c>
       <c r="AC415" t="n">
-        <v>162001658513.0712</v>
-      </c>
-      <c r="AD415" t="n">
         <v>394.1</v>
       </c>
     </row>
@@ -38759,9 +37512,6 @@
         <v>1.414148363551082</v>
       </c>
       <c r="AC416" t="n">
-        <v>162001658513.0712</v>
-      </c>
-      <c r="AD416" t="n">
         <v>430.7</v>
       </c>
     </row>
@@ -38851,9 +37601,6 @@
         <v>2.26697471076483</v>
       </c>
       <c r="AC417" t="n">
-        <v>147663641762.572</v>
-      </c>
-      <c r="AD417" t="n">
         <v>684</v>
       </c>
     </row>
@@ -38943,9 +37690,6 @@
         <v>1.478979806827839</v>
       </c>
       <c r="AC418" t="n">
-        <v>172500167125.6241</v>
-      </c>
-      <c r="AD418" t="n">
         <v>94.7</v>
       </c>
     </row>
@@ -39035,9 +37779,6 @@
         <v>1.955884195281125</v>
       </c>
       <c r="AC419" t="n">
-        <v>165759595528.5366</v>
-      </c>
-      <c r="AD419" t="n">
         <v>117</v>
       </c>
     </row>
@@ -39127,9 +37868,6 @@
         <v>2.242409015638864</v>
       </c>
       <c r="AC420" t="n">
-        <v>159912830047.1196</v>
-      </c>
-      <c r="AD420" t="n">
         <v>228</v>
       </c>
     </row>
@@ -39219,9 +37957,6 @@
         <v>2.43259086700783</v>
       </c>
       <c r="AC421" t="n">
-        <v>154780871832.9394</v>
-      </c>
-      <c r="AD421" t="n">
         <v>511</v>
       </c>
     </row>
@@ -39311,9 +38046,6 @@
         <v>2.505414106572962</v>
       </c>
       <c r="AC422" t="n">
-        <v>150635452029.0161</v>
-      </c>
-      <c r="AD422" t="n">
         <v>623</v>
       </c>
     </row>
@@ -39403,9 +38135,6 @@
         <v>1.414148363551082</v>
       </c>
       <c r="AC423" t="n">
-        <v>162001658513.0712</v>
-      </c>
-      <c r="AD423" t="n">
         <v>95.11647364481043</v>
       </c>
     </row>
@@ -39495,9 +38224,6 @@
         <v>1.420080429749754</v>
       </c>
       <c r="AC424" t="n">
-        <v>162570495810.6884</v>
-      </c>
-      <c r="AD424" t="n">
         <v>99.07966004667752</v>
       </c>
     </row>
@@ -39587,9 +38313,6 @@
         <v>1.425870731188679</v>
       </c>
       <c r="AC425" t="n">
-        <v>163161360164.9751</v>
-      </c>
-      <c r="AD425" t="n">
         <v>145.316834735127</v>
       </c>
     </row>
@@ -39679,9 +38402,6 @@
         <v>1.431866281058122</v>
       </c>
       <c r="AC426" t="n">
-        <v>163801840091.2051</v>
-      </c>
-      <c r="AD426" t="n">
         <v>246.5982650050641</v>
       </c>
     </row>
@@ -39771,9 +38491,6 @@
         <v>1.43794984414093</v>
       </c>
       <c r="AC427" t="n">
-        <v>164484760004.9529</v>
-      </c>
-      <c r="AD427" t="n">
         <v>336.8708441587036</v>
       </c>
     </row>
@@ -39863,9 +38580,6 @@
         <v>1.955884195281125</v>
       </c>
       <c r="AC428" t="n">
-        <v>165759595528.5366</v>
-      </c>
-      <c r="AD428" t="n">
         <v>393.3947909785989</v>
       </c>
     </row>
@@ -39955,9 +38669,6 @@
         <v>2.738433975360564</v>
       </c>
       <c r="AC429" t="n">
-        <v>149005951412.674</v>
-      </c>
-      <c r="AD429" t="n">
         <v>1183</v>
       </c>
     </row>
@@ -40047,9 +38758,6 @@
         <v>1.854757705179749</v>
       </c>
       <c r="AC430" t="n">
-        <v>153996296047.5863</v>
-      </c>
-      <c r="AD430" t="n">
         <v>256.8306500149835</v>
       </c>
     </row>
@@ -40139,9 +38847,6 @@
         <v>1.854757705179749</v>
       </c>
       <c r="AC431" t="n">
-        <v>153996296047.5863</v>
-      </c>
-      <c r="AD431" t="n">
         <v>252.8222196059505</v>
       </c>
     </row>
@@ -40231,9 +38936,6 @@
         <v>1.854757705179749</v>
       </c>
       <c r="AC432" t="n">
-        <v>153996296047.5863</v>
-      </c>
-      <c r="AD432" t="n">
         <v>250.4440056141551</v>
       </c>
     </row>
@@ -40323,9 +39025,6 @@
         <v>1.854757705179749</v>
       </c>
       <c r="AC433" t="n">
-        <v>153996296047.5863</v>
-      </c>
-      <c r="AD433" t="n">
         <v>248.0876582492547</v>
       </c>
     </row>
@@ -40415,9 +39114,6 @@
         <v>1.854757705179749</v>
       </c>
       <c r="AC434" t="n">
-        <v>153996296047.5863</v>
-      </c>
-      <c r="AD434" t="n">
         <v>243.5951405417799</v>
       </c>
     </row>
@@ -40507,9 +39203,6 @@
         <v>0.4999999992224716</v>
       </c>
       <c r="AC435" t="n">
-        <v>204997163323.5446</v>
-      </c>
-      <c r="AD435" t="n">
         <v>704.6</v>
       </c>
     </row>
@@ -40599,9 +39292,6 @@
         <v>1.720484345351055</v>
       </c>
       <c r="AC436" t="n">
-        <v>165999407630.7888</v>
-      </c>
-      <c r="AD436" t="n">
         <v>160</v>
       </c>
     </row>
@@ -40691,9 +39381,6 @@
         <v>2.339105020545805</v>
       </c>
       <c r="AC437" t="n">
-        <v>157816364024.7777</v>
-      </c>
-      <c r="AD437" t="n">
         <v>160</v>
       </c>
     </row>
@@ -40783,9 +39470,6 @@
         <v>2.672029675941108</v>
       </c>
       <c r="AC438" t="n">
-        <v>150996179303.765</v>
-      </c>
-      <c r="AD438" t="n">
         <v>458</v>
       </c>
     </row>
@@ -40875,9 +39559,6 @@
         <v>2.871880984360682</v>
       </c>
       <c r="AC439" t="n">
-        <v>145235505028.8344</v>
-      </c>
-      <c r="AD439" t="n">
         <v>498</v>
       </c>
     </row>
@@ -40967,9 +39648,6 @@
         <v>2.996570760682579</v>
       </c>
       <c r="AC440" t="n">
-        <v>140287856344.2604</v>
-      </c>
-      <c r="AD440" t="n">
         <v>560</v>
       </c>
     </row>
@@ -41059,9 +39737,6 @@
         <v>1.955884195281125</v>
       </c>
       <c r="AC441" t="n">
-        <v>165759595528.5366</v>
-      </c>
-      <c r="AD441" t="n">
         <v>390.9931996065328</v>
       </c>
     </row>
@@ -41151,9 +39826,6 @@
         <v>2.405538587018857</v>
       </c>
       <c r="AC442" t="n">
-        <v>157172376293.4766</v>
-      </c>
-      <c r="AD442" t="n">
         <v>529.305561671584</v>
       </c>
     </row>
@@ -41243,9 +39915,6 @@
         <v>2.527793588592343</v>
       </c>
       <c r="AC443" t="n">
-        <v>137336800109.4039</v>
-      </c>
-      <c r="AD443" t="n">
         <v>699</v>
       </c>
     </row>
@@ -41335,9 +40004,6 @@
         <v>2.856541203052072</v>
       </c>
       <c r="AC444" t="n">
-        <v>124836459973.6371</v>
-      </c>
-      <c r="AD444" t="n">
         <v>728</v>
       </c>
     </row>
@@ -41427,9 +40093,6 @@
         <v>2.913702761177166</v>
       </c>
       <c r="AC445" t="n">
-        <v>132582054160.0209</v>
-      </c>
-      <c r="AD445" t="n">
         <v>604</v>
       </c>
     </row>
@@ -41519,9 +40182,6 @@
         <v>2.698461286365679</v>
       </c>
       <c r="AC446" t="n">
-        <v>133055700727.12</v>
-      </c>
-      <c r="AD446" t="n">
         <v>790</v>
       </c>
     </row>
@@ -41611,9 +40271,6 @@
         <v>2.777733532992306</v>
       </c>
       <c r="AC447" t="n">
-        <v>130879042566.7097</v>
-      </c>
-      <c r="AD447" t="n">
         <v>806</v>
       </c>
     </row>
@@ -41703,9 +40360,6 @@
         <v>2.971130795730795</v>
       </c>
       <c r="AC448" t="n">
-        <v>125417064228.1697</v>
-      </c>
-      <c r="AD448" t="n">
         <v>811</v>
       </c>
     </row>
@@ -41795,9 +40449,6 @@
         <v>2.695692116610812</v>
       </c>
       <c r="AC449" t="n">
-        <v>130386773719.7539</v>
-      </c>
-      <c r="AD449" t="n">
         <v>855</v>
       </c>
     </row>
@@ -41887,9 +40538,6 @@
         <v>2.657806909131685</v>
       </c>
       <c r="AC450" t="n">
-        <v>130425529126.2816</v>
-      </c>
-      <c r="AD450" t="n">
         <v>802</v>
       </c>
     </row>
@@ -41979,9 +40627,6 @@
         <v>2.951378873750805</v>
       </c>
       <c r="AC451" t="n">
-        <v>125332657119.7439</v>
-      </c>
-      <c r="AD451" t="n">
         <v>799</v>
       </c>
     </row>
@@ -42071,9 +40716,6 @@
         <v>2.654682748346091</v>
       </c>
       <c r="AC452" t="n">
-        <v>130091785517.205</v>
-      </c>
-      <c r="AD452" t="n">
         <v>857</v>
       </c>
     </row>
@@ -42163,9 +40805,6 @@
         <v>2.796256267322047</v>
       </c>
       <c r="AC453" t="n">
-        <v>124310887945.0782</v>
-      </c>
-      <c r="AD453" t="n">
         <v>855</v>
       </c>
     </row>
@@ -42255,9 +40894,6 @@
         <v>2.728706365900477</v>
       </c>
       <c r="AC454" t="n">
-        <v>130572325334.9579</v>
-      </c>
-      <c r="AD454" t="n">
         <v>816</v>
       </c>
     </row>
@@ -42347,9 +40983,6 @@
         <v>2.7562697483971</v>
       </c>
       <c r="AC455" t="n">
-        <v>124858881160.961</v>
-      </c>
-      <c r="AD455" t="n">
         <v>811</v>
       </c>
     </row>
@@ -42439,9 +41072,6 @@
         <v>2.781663519892379</v>
       </c>
       <c r="AC456" t="n">
-        <v>126937708601.8181</v>
-      </c>
-      <c r="AD456" t="n">
         <v>790</v>
       </c>
     </row>
@@ -42531,9 +41161,6 @@
         <v>2.600024401368282</v>
       </c>
       <c r="AC457" t="n">
-        <v>129687871556.2168</v>
-      </c>
-      <c r="AD457" t="n">
         <v>855</v>
       </c>
     </row>
@@ -42623,9 +41250,6 @@
         <v>2.562512914794704</v>
       </c>
       <c r="AC458" t="n">
-        <v>129494373508.819</v>
-      </c>
-      <c r="AD458" t="n">
         <v>856</v>
       </c>
     </row>
@@ -42715,9 +41339,6 @@
         <v>2.786446650588176</v>
       </c>
       <c r="AC459" t="n">
-        <v>124208827708.1182</v>
-      </c>
-      <c r="AD459" t="n">
         <v>859</v>
       </c>
     </row>
@@ -42807,9 +41428,6 @@
         <v>2.671742884720395</v>
       </c>
       <c r="AC460" t="n">
-        <v>130382616398.8971</v>
-      </c>
-      <c r="AD460" t="n">
         <v>875</v>
       </c>
     </row>
@@ -42899,9 +41517,6 @@
         <v>2.65700848472808</v>
       </c>
       <c r="AC461" t="n">
-        <v>130366344907.695</v>
-      </c>
-      <c r="AD461" t="n">
         <v>865</v>
       </c>
     </row>
@@ -42991,9 +41606,6 @@
         <v>2.637259036955047</v>
       </c>
       <c r="AC462" t="n">
-        <v>130170703419.7327</v>
-      </c>
-      <c r="AD462" t="n">
         <v>868</v>
       </c>
     </row>
@@ -43083,9 +41695,6 @@
         <v>2.646276419747844</v>
       </c>
       <c r="AC463" t="n">
-        <v>130275428791.3601</v>
-      </c>
-      <c r="AD463" t="n">
         <v>863</v>
       </c>
     </row>
@@ -43175,9 +41784,6 @@
         <v>2.765451491798453</v>
       </c>
       <c r="AC464" t="n">
-        <v>124003576365.3419</v>
-      </c>
-      <c r="AD464" t="n">
         <v>843</v>
       </c>
     </row>
@@ -43267,9 +41873,6 @@
         <v>2.825971549432654</v>
       </c>
       <c r="AC465" t="n">
-        <v>128501950097.0652</v>
-      </c>
-      <c r="AD465" t="n">
         <v>794</v>
       </c>
     </row>
@@ -43359,9 +41962,6 @@
         <v>2.657382696464949</v>
       </c>
       <c r="AC466" t="n">
-        <v>127624773806.7922</v>
-      </c>
-      <c r="AD466" t="n">
         <v>783</v>
       </c>
     </row>
@@ -43451,9 +42051,6 @@
         <v>2.734920217865911</v>
       </c>
       <c r="AC467" t="n">
-        <v>123713275236.7402</v>
-      </c>
-      <c r="AD467" t="n">
         <v>797</v>
       </c>
     </row>
@@ -43543,9 +42140,6 @@
         <v>2.776008468672141</v>
       </c>
       <c r="AC468" t="n">
-        <v>124131036299.104</v>
-      </c>
-      <c r="AD468" t="n">
         <v>805</v>
       </c>
     </row>
@@ -43635,9 +42229,6 @@
         <v>2.511105136075732</v>
       </c>
       <c r="AC469" t="n">
-        <v>142540939096.1656</v>
-      </c>
-      <c r="AD469" t="n">
         <v>699</v>
       </c>
     </row>
@@ -43727,9 +42318,6 @@
         <v>2.914398733966913</v>
       </c>
       <c r="AC470" t="n">
-        <v>122686353088.6736</v>
-      </c>
-      <c r="AD470" t="n">
         <v>749</v>
       </c>
     </row>
@@ -43819,9 +42407,6 @@
         <v>2.761398275409977</v>
       </c>
       <c r="AC471" t="n">
-        <v>127874429535.8782</v>
-      </c>
-      <c r="AD471" t="n">
         <v>828</v>
       </c>
     </row>
@@ -43911,9 +42496,6 @@
         <v>2.871688642260807</v>
       </c>
       <c r="AC472" t="n">
-        <v>125114848431.0268</v>
-      </c>
-      <c r="AD472" t="n">
         <v>849</v>
       </c>
     </row>
@@ -44003,9 +42585,6 @@
         <v>2.8650564083033</v>
       </c>
       <c r="AC473" t="n">
-        <v>125012990923.6899</v>
-      </c>
-      <c r="AD473" t="n">
         <v>883</v>
       </c>
     </row>
@@ -44095,9 +42674,6 @@
         <v>2.653063240640712</v>
       </c>
       <c r="AC474" t="n">
-        <v>130095654747.7323</v>
-      </c>
-      <c r="AD474" t="n">
         <v>864</v>
       </c>
     </row>
@@ -44187,9 +42763,6 @@
         <v>2.853661311900585</v>
       </c>
       <c r="AC475" t="n">
-        <v>124911244789.1501</v>
-      </c>
-      <c r="AD475" t="n">
         <v>841</v>
       </c>
     </row>
@@ -44279,9 +42852,6 @@
         <v>2.637259036955047</v>
       </c>
       <c r="AC476" t="n">
-        <v>130170703419.7327</v>
-      </c>
-      <c r="AD476" t="n">
         <v>868</v>
       </c>
     </row>
@@ -44371,9 +42941,6 @@
         <v>2.65700848472808</v>
       </c>
       <c r="AC477" t="n">
-        <v>130366344907.695</v>
-      </c>
-      <c r="AD477" t="n">
         <v>865</v>
       </c>
     </row>
@@ -44463,9 +43030,6 @@
         <v>2.871481050023511</v>
       </c>
       <c r="AC478" t="n">
-        <v>126084737440.366</v>
-      </c>
-      <c r="AD478" t="n">
         <v>840</v>
       </c>
     </row>
@@ -44555,9 +43119,6 @@
         <v>2.625767795338903</v>
       </c>
       <c r="AC479" t="n">
-        <v>130087666531.3369</v>
-      </c>
-      <c r="AD479" t="n">
         <v>882</v>
       </c>
     </row>
@@ -44647,9 +43208,6 @@
         <v>2.616314316539177</v>
       </c>
       <c r="AC480" t="n">
-        <v>129982034186.2131</v>
-      </c>
-      <c r="AD480" t="n">
         <v>883</v>
       </c>
     </row>
@@ -44739,9 +43297,6 @@
         <v>2.664418089764831</v>
       </c>
       <c r="AC481" t="n">
-        <v>130175047021.5849</v>
-      </c>
-      <c r="AD481" t="n">
         <v>828</v>
       </c>
     </row>
@@ -44831,9 +43386,6 @@
         <v>2.596442483458647</v>
       </c>
       <c r="AC482" t="n">
-        <v>129768931516.3472</v>
-      </c>
-      <c r="AD482" t="n">
         <v>848</v>
       </c>
     </row>
@@ -44923,9 +43475,6 @@
         <v>2.846306379568784</v>
       </c>
       <c r="AC483" t="n">
-        <v>124788076656.5612</v>
-      </c>
-      <c r="AD483" t="n">
         <v>878</v>
       </c>
     </row>
@@ -45015,9 +43564,6 @@
         <v>2.731818638260389</v>
       </c>
       <c r="AC484" t="n">
-        <v>131170077285.8691</v>
-      </c>
-      <c r="AD484" t="n">
         <v>782</v>
       </c>
     </row>
@@ -45107,9 +43653,6 @@
         <v>1.423955477350712</v>
       </c>
       <c r="AC485" t="n">
-        <v>162611450413.8129</v>
-      </c>
-      <c r="AD485" t="n">
         <v>564.6375683352394</v>
       </c>
     </row>
@@ -45199,9 +43742,6 @@
         <v>0.7999469427396499</v>
       </c>
       <c r="AC486" t="n">
-        <v>138166366493.8295</v>
-      </c>
-      <c r="AD486" t="n">
         <v>756.9686027566163</v>
       </c>
     </row>
@@ -45291,9 +43831,6 @@
         <v>3.041369557570532</v>
       </c>
       <c r="AC487" t="n">
-        <v>136497268036.5696</v>
-      </c>
-      <c r="AD487" t="n">
         <v>672</v>
       </c>
     </row>
@@ -45383,9 +43920,6 @@
         <v>2.86139833660251</v>
       </c>
       <c r="AC488" t="n">
-        <v>133998537856.4427</v>
-      </c>
-      <c r="AD488" t="n">
         <v>666</v>
       </c>
     </row>
@@ -45475,9 +44009,6 @@
         <v>2.785788433431666</v>
       </c>
       <c r="AC489" t="n">
-        <v>143194177385.2228</v>
-      </c>
-      <c r="AD489" t="n">
         <v>667</v>
       </c>
     </row>
@@ -45567,9 +44098,6 @@
         <v>2.870733601318</v>
       </c>
       <c r="AC490" t="n">
-        <v>145193891622.3064</v>
-      </c>
-      <c r="AD490" t="n">
         <v>434</v>
       </c>
     </row>
@@ -45659,9 +44187,6 @@
         <v>2.870733601318</v>
       </c>
       <c r="AC491" t="n">
-        <v>145193891622.3064</v>
-      </c>
-      <c r="AD491" t="n">
         <v>666</v>
       </c>
     </row>
@@ -45751,9 +44276,6 @@
         <v>2.870733601318</v>
       </c>
       <c r="AC492" t="n">
-        <v>145193891622.3064</v>
-      </c>
-      <c r="AD492" t="n">
         <v>761</v>
       </c>
     </row>
@@ -45843,9 +44365,6 @@
         <v>2.870733601318</v>
       </c>
       <c r="AC493" t="n">
-        <v>145193891622.3064</v>
-      </c>
-      <c r="AD493" t="n">
         <v>747</v>
       </c>
     </row>
@@ -45935,9 +44454,6 @@
         <v>1.414148363551082</v>
       </c>
       <c r="AC494" t="n">
-        <v>162001658513.0712</v>
-      </c>
-      <c r="AD494" t="n">
         <v>92.47434937689903</v>
       </c>
     </row>
@@ -46027,9 +44543,6 @@
         <v>1.414148363551082</v>
       </c>
       <c r="AC495" t="n">
-        <v>162001658513.0712</v>
-      </c>
-      <c r="AD495" t="n">
         <v>506.4071513496851</v>
       </c>
     </row>
@@ -46119,9 +44632,6 @@
         <v>1.414148363551082</v>
       </c>
       <c r="AC496" t="n">
-        <v>162001658513.0712</v>
-      </c>
-      <c r="AD496" t="n">
         <v>572.4602580474701</v>
       </c>
     </row>
@@ -46211,9 +44721,6 @@
         <v>1.414148363551082</v>
       </c>
       <c r="AC497" t="n">
-        <v>162001658513.0712</v>
-      </c>
-      <c r="AD497" t="n">
         <v>410.9</v>
       </c>
     </row>
@@ -46303,9 +44810,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC498" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD498" t="n">
         <v>572.4602580474701</v>
       </c>
     </row>
@@ -46395,9 +44899,6 @@
         <v>2.421216231724156</v>
       </c>
       <c r="AC499" t="n">
-        <v>154560698957.5036</v>
-      </c>
-      <c r="AD499" t="n">
         <v>426.2627152230393</v>
       </c>
     </row>
@@ -46487,9 +44988,6 @@
         <v>2.325807458413442</v>
       </c>
       <c r="AC500" t="n">
-        <v>156605959220.2473</v>
-      </c>
-      <c r="AD500" t="n">
         <v>484.3894491170901</v>
       </c>
     </row>
@@ -46579,9 +45077,6 @@
         <v>2.785743085840141</v>
       </c>
       <c r="AC501" t="n">
-        <v>149198549450.287</v>
-      </c>
-      <c r="AD501" t="n">
         <v>466.7752873310141</v>
       </c>
     </row>
@@ -46671,9 +45166,6 @@
         <v>2.672029675941108</v>
       </c>
       <c r="AC502" t="n">
-        <v>150996179303.765</v>
-      </c>
-      <c r="AD502" t="n">
         <v>565.8549473776916</v>
       </c>
     </row>
@@ -46763,9 +45255,6 @@
         <v>2.985964922132384</v>
       </c>
       <c r="AC503" t="n">
-        <v>142670251536.0346</v>
-      </c>
-      <c r="AD503" t="n">
         <v>709.8507199788629</v>
       </c>
     </row>
@@ -46855,9 +45344,6 @@
         <v>2.814058950561936</v>
       </c>
       <c r="AC504" t="n">
-        <v>145136554827.7589</v>
-      </c>
-      <c r="AD504" t="n">
         <v>670.6592100048439</v>
       </c>
     </row>
@@ -46947,9 +45433,6 @@
         <v>2.585917379363751</v>
       </c>
       <c r="AC505" t="n">
-        <v>146504396335.2279</v>
-      </c>
-      <c r="AD505" t="n">
         <v>559.689990752565</v>
       </c>
     </row>
@@ -47039,9 +45522,6 @@
         <v>2.56410435147823</v>
       </c>
       <c r="AC506" t="n">
-        <v>148464656372.9286</v>
-      </c>
-      <c r="AD506" t="n">
         <v>600.2025628605398</v>
       </c>
     </row>
@@ -47131,9 +45611,6 @@
         <v>2.538612480678354</v>
       </c>
       <c r="AC507" t="n">
-        <v>150220618952.0905</v>
-      </c>
-      <c r="AD507" t="n">
         <v>594.0376062354133</v>
       </c>
     </row>
@@ -47223,9 +45700,6 @@
         <v>2.510966075658362</v>
       </c>
       <c r="AC508" t="n">
-        <v>151788641172.687</v>
-      </c>
-      <c r="AD508" t="n">
         <v>586.111233431679</v>
       </c>
     </row>
@@ -47315,9 +45789,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC509" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD509" t="n">
         <v>578.1848606279449</v>
       </c>
     </row>
@@ -47407,9 +45878,6 @@
         <v>1.118007474737236</v>
       </c>
       <c r="AC510" t="n">
-        <v>157499616138.8649</v>
-      </c>
-      <c r="AD510" t="n">
         <v>148.8396670923422</v>
       </c>
     </row>
@@ -47499,9 +45967,6 @@
         <v>0.4330085012905863</v>
       </c>
       <c r="AC511" t="n">
-        <v>115208313614.6662</v>
-      </c>
-      <c r="AD511" t="n">
         <v>351</v>
       </c>
     </row>
@@ -47591,9 +46056,6 @@
         <v>1.520821314668129</v>
       </c>
       <c r="AC512" t="n">
-        <v>179046236668.9654</v>
-      </c>
-      <c r="AD512" t="n">
         <v>244</v>
       </c>
     </row>
@@ -47683,9 +46145,6 @@
         <v>1.563379656351065</v>
       </c>
       <c r="AC513" t="n">
-        <v>187777032253.2076</v>
-      </c>
-      <c r="AD513" t="n">
         <v>357.9</v>
       </c>
     </row>
@@ -47775,9 +46234,6 @@
         <v>1.326715452352045</v>
       </c>
       <c r="AC514" t="n">
-        <v>167998742374.4103</v>
-      </c>
-      <c r="AD514" t="n">
         <v>792</v>
       </c>
     </row>
@@ -47867,9 +46323,6 @@
         <v>1.356529542318544</v>
       </c>
       <c r="AC515" t="n">
-        <v>167994688645.7521</v>
-      </c>
-      <c r="AD515" t="n">
         <v>699</v>
       </c>
     </row>
@@ -47959,9 +46412,6 @@
         <v>2.196476247171899</v>
       </c>
       <c r="AC516" t="n">
-        <v>163088910895.8829</v>
-      </c>
-      <c r="AD516" t="n">
         <v>209</v>
       </c>
     </row>
@@ -48051,9 +46501,6 @@
         <v>2.196476247171899</v>
       </c>
       <c r="AC517" t="n">
-        <v>163088910895.8829</v>
-      </c>
-      <c r="AD517" t="n">
         <v>321</v>
       </c>
     </row>
@@ -48143,9 +46590,6 @@
         <v>2.196476247171899</v>
       </c>
       <c r="AC518" t="n">
-        <v>163088910895.8829</v>
-      </c>
-      <c r="AD518" t="n">
         <v>159</v>
       </c>
     </row>
@@ -48235,9 +46679,6 @@
         <v>0.481053301451613</v>
       </c>
       <c r="AC519" t="n">
-        <v>122879850560.4998</v>
-      </c>
-      <c r="AD519" t="n">
         <v>310.4</v>
       </c>
     </row>
@@ -48327,9 +46768,6 @@
         <v>1.854757705179749</v>
       </c>
       <c r="AC520" t="n">
-        <v>153996296047.5863</v>
-      </c>
-      <c r="AD520" t="n">
         <v>398</v>
       </c>
     </row>
@@ -48419,9 +46857,6 @@
         <v>1.719766291079182</v>
       </c>
       <c r="AC521" t="n">
-        <v>173819893462.0859</v>
-      </c>
-      <c r="AD521" t="n">
         <v>307.494026450588</v>
       </c>
     </row>
@@ -48511,9 +46946,6 @@
         <v>0.8000317253727433</v>
       </c>
       <c r="AC522" t="n">
-        <v>195997641099.1525</v>
-      </c>
-      <c r="AD522" t="n">
         <v>1100.88511162975</v>
       </c>
     </row>
@@ -48603,9 +47035,6 @@
         <v>0.8000317253727433</v>
       </c>
       <c r="AC523" t="n">
-        <v>195997641099.1525</v>
-      </c>
-      <c r="AD523" t="n">
         <v>554.8460962613941</v>
       </c>
     </row>
@@ -48695,9 +47124,6 @@
         <v>0.8000317253727433</v>
       </c>
       <c r="AC524" t="n">
-        <v>195997641099.1525</v>
-      </c>
-      <c r="AD524" t="n">
         <v>717.7770927825972</v>
       </c>
     </row>
@@ -48787,9 +47213,6 @@
         <v>0.8000317253727433</v>
       </c>
       <c r="AC525" t="n">
-        <v>195997641099.1525</v>
-      </c>
-      <c r="AD525" t="n">
         <v>893.9187106433573</v>
       </c>
     </row>
@@ -48879,9 +47302,6 @@
         <v>0.8000317253727433</v>
       </c>
       <c r="AC526" t="n">
-        <v>195997641099.1525</v>
-      </c>
-      <c r="AD526" t="n">
         <v>845.4797657316482</v>
       </c>
     </row>
@@ -48971,9 +47391,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC527" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD527" t="n">
         <v>228.9841032189881</v>
       </c>
     </row>
@@ -49063,9 +47480,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC528" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD528" t="n">
         <v>506.4071513496851</v>
       </c>
     </row>
@@ -49155,9 +47569,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC529" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD529" t="n">
         <v>566.7356554669955</v>
       </c>
     </row>
@@ -49247,9 +47658,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC530" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD530" t="n">
         <v>566.2953014223435</v>
       </c>
     </row>
@@ -49339,9 +47747,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC531" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD531" t="n">
         <v>612.0921220661411</v>
       </c>
     </row>
@@ -49431,9 +47836,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC532" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD532" t="n">
         <v>716.0156766039896</v>
       </c>
     </row>
@@ -49523,9 +47925,6 @@
         <v>0.8062074696321216</v>
       </c>
       <c r="AC533" t="n">
-        <v>150001735406.6516</v>
-      </c>
-      <c r="AD533" t="n">
         <v>383.597668861782</v>
       </c>
     </row>
@@ -49615,9 +48014,6 @@
         <v>1.471243148753493</v>
       </c>
       <c r="AC534" t="n">
-        <v>161040650706.7921</v>
-      </c>
-      <c r="AD534" t="n">
         <v>341.8303505801713</v>
       </c>
     </row>
@@ -49707,9 +48103,6 @@
         <v>0.66154706710537</v>
       </c>
       <c r="AC535" t="n">
-        <v>122201473674.8247</v>
-      </c>
-      <c r="AD535" t="n">
         <v>660.5310669778502</v>
       </c>
     </row>
@@ -49799,9 +48192,6 @@
         <v>0.66154706710537</v>
       </c>
       <c r="AC536" t="n">
-        <v>122201473674.8247</v>
-      </c>
-      <c r="AD536" t="n">
         <v>528.4248535822801</v>
       </c>
     </row>
@@ -49891,9 +48281,6 @@
         <v>0.66154706710537</v>
       </c>
       <c r="AC537" t="n">
-        <v>122201473674.8247</v>
-      </c>
-      <c r="AD537" t="n">
         <v>924.7434937689902</v>
       </c>
     </row>
@@ -49983,9 +48370,6 @@
         <v>0.66154706710537</v>
       </c>
       <c r="AC538" t="n">
-        <v>122201473674.8247</v>
-      </c>
-      <c r="AD538" t="n">
         <v>766.2160376943061</v>
       </c>
     </row>
@@ -50075,9 +48459,6 @@
         <v>0.66154706710537</v>
       </c>
       <c r="AC539" t="n">
-        <v>122201473674.8247</v>
-      </c>
-      <c r="AD539" t="n">
         <v>717.7770927825972</v>
       </c>
     </row>
@@ -50167,9 +48548,6 @@
         <v>0.4999999990692543</v>
       </c>
       <c r="AC540" t="n">
-        <v>227504154586.0995</v>
-      </c>
-      <c r="AD540" t="n">
         <v>504.5</v>
       </c>
     </row>
@@ -50259,9 +48637,6 @@
         <v>0.6664754360964081</v>
       </c>
       <c r="AC541" t="n">
-        <v>213346154888.7757</v>
-      </c>
-      <c r="AD541" t="n">
         <v>697</v>
       </c>
     </row>
@@ -50351,9 +48726,6 @@
         <v>1.414148363551082</v>
       </c>
       <c r="AC542" t="n">
-        <v>162001658513.0712</v>
-      </c>
-      <c r="AD542" t="n">
         <v>528.8632823333091</v>
       </c>
     </row>
@@ -50443,9 +48815,6 @@
         <v>1.414148363551082</v>
       </c>
       <c r="AC543" t="n">
-        <v>162001658513.0712</v>
-      </c>
-      <c r="AD543" t="n">
         <v>550.4067753240431</v>
       </c>
     </row>
@@ -50535,9 +48904,6 @@
         <v>1.414148363551082</v>
       </c>
       <c r="AC544" t="n">
-        <v>162001658513.0712</v>
-      </c>
-      <c r="AD544" t="n">
         <v>580.1047068059354</v>
       </c>
     </row>
@@ -50627,9 +48993,6 @@
         <v>1.58584930733895</v>
       </c>
       <c r="AC545" t="n">
-        <v>158517359261.0036</v>
-      </c>
-      <c r="AD545" t="n">
         <v>378</v>
       </c>
     </row>
@@ -50719,9 +49082,6 @@
         <v>2.160588604853224</v>
       </c>
       <c r="AC546" t="n">
-        <v>161769848926.2895</v>
-      </c>
-      <c r="AD546" t="n">
         <v>250</v>
       </c>
     </row>
@@ -50811,9 +49171,6 @@
         <v>2.482023336619541</v>
       </c>
       <c r="AC547" t="n">
-        <v>153196369217.5541</v>
-      </c>
-      <c r="AD547" t="n">
         <v>500</v>
       </c>
     </row>
@@ -50903,9 +49260,6 @@
         <v>2.753660773340179</v>
       </c>
       <c r="AC548" t="n">
-        <v>140335707151.3176</v>
-      </c>
-      <c r="AD548" t="n">
         <v>733</v>
       </c>
     </row>
@@ -50995,9 +49349,6 @@
         <v>2.497105326422695</v>
       </c>
       <c r="AC549" t="n">
-        <v>155743608458.9646</v>
-      </c>
-      <c r="AD549" t="n">
         <v>733</v>
       </c>
     </row>
@@ -51087,9 +49438,6 @@
         <v>2.325807458413442</v>
       </c>
       <c r="AC550" t="n">
-        <v>156605959220.2473</v>
-      </c>
-      <c r="AD550" t="n">
         <v>640</v>
       </c>
     </row>
@@ -51179,9 +49527,6 @@
         <v>1.992106453704826</v>
       </c>
       <c r="AC551" t="n">
-        <v>155784311860.9064</v>
-      </c>
-      <c r="AD551" t="n">
         <v>385</v>
       </c>
     </row>
@@ -51271,9 +49616,6 @@
         <v>2.007209925917302</v>
       </c>
       <c r="AC552" t="n">
-        <v>157293403004.4074</v>
-      </c>
-      <c r="AD552" t="n">
         <v>486</v>
       </c>
     </row>
@@ -51363,9 +49705,6 @@
         <v>2.047135599290094</v>
       </c>
       <c r="AC553" t="n">
-        <v>158027045562.6349</v>
-      </c>
-      <c r="AD553" t="n">
         <v>570</v>
       </c>
     </row>
@@ -51455,9 +49794,6 @@
         <v>1.501981490998397</v>
       </c>
       <c r="AC554" t="n">
-        <v>163462368671.4864</v>
-      </c>
-      <c r="AD554" t="n">
         <v>200</v>
       </c>
     </row>
@@ -51547,9 +49883,6 @@
         <v>1.571398347077636</v>
       </c>
       <c r="AC555" t="n">
-        <v>164817939078.4765</v>
-      </c>
-      <c r="AD555" t="n">
         <v>290</v>
       </c>
     </row>
@@ -51639,9 +49972,6 @@
         <v>1.626870803965544</v>
       </c>
       <c r="AC556" t="n">
-        <v>166073380571.2067</v>
-      </c>
-      <c r="AD556" t="n">
         <v>345</v>
       </c>
     </row>
@@ -51731,9 +50061,6 @@
         <v>1.955884195281125</v>
       </c>
       <c r="AC557" t="n">
-        <v>165759595528.5366</v>
-      </c>
-      <c r="AD557" t="n">
         <v>160</v>
       </c>
     </row>
@@ -51823,9 +50150,6 @@
         <v>1.953416505015988</v>
       </c>
       <c r="AC558" t="n">
-        <v>167227808946.4084</v>
-      </c>
-      <c r="AD558" t="n">
         <v>200</v>
       </c>
     </row>
@@ -51915,9 +50239,6 @@
         <v>1.635206178710803</v>
       </c>
       <c r="AC559" t="n">
-        <v>152092990837.3972</v>
-      </c>
-      <c r="AD559" t="n">
         <v>551.9298794142678</v>
       </c>
     </row>
@@ -52007,9 +50328,6 @@
         <v>1.919978706099737</v>
       </c>
       <c r="AC560" t="n">
-        <v>149889837140.8132</v>
-      </c>
-      <c r="AD560" t="n">
         <v>605.7134244027228</v>
       </c>
     </row>
@@ -52099,9 +50417,6 @@
         <v>1.511593022304487</v>
       </c>
       <c r="AC561" t="n">
-        <v>174577946741.6842</v>
-      </c>
-      <c r="AD561" t="n">
         <v>384.4290809811088</v>
       </c>
     </row>
@@ -52191,9 +50506,6 @@
         <v>1.511593022304487</v>
       </c>
       <c r="AC562" t="n">
-        <v>174577946741.6842</v>
-      </c>
-      <c r="AD562" t="n">
         <v>432.1127889278062</v>
       </c>
     </row>
@@ -52283,9 +50595,6 @@
         <v>1.511593022304487</v>
       </c>
       <c r="AC563" t="n">
-        <v>174577946741.6842</v>
-      </c>
-      <c r="AD563" t="n">
         <v>497.0175396737852</v>
       </c>
     </row>
@@ -52375,9 +50684,6 @@
         <v>1.511593022304487</v>
       </c>
       <c r="AC564" t="n">
-        <v>174577946741.6842</v>
-      </c>
-      <c r="AD564" t="n">
         <v>582.5277264244373</v>
       </c>
     </row>
@@ -52467,9 +50773,6 @@
         <v>1.511593022304487</v>
       </c>
       <c r="AC565" t="n">
-        <v>174577946741.6842</v>
-      </c>
-      <c r="AD565" t="n">
         <v>570.4511481766699</v>
       </c>
     </row>
@@ -52559,9 +50862,6 @@
         <v>1.511593022304487</v>
       </c>
       <c r="AC566" t="n">
-        <v>174577946741.6842</v>
-      </c>
-      <c r="AD566" t="n">
         <v>569.4219059592282</v>
       </c>
     </row>
@@ -52651,9 +50951,6 @@
         <v>2.359318567234012</v>
       </c>
       <c r="AC567" t="n">
-        <v>155217996002.5341</v>
-      </c>
-      <c r="AD567" t="n">
         <v>147.4</v>
       </c>
     </row>
@@ -52743,9 +51040,6 @@
         <v>2.359318567234012</v>
       </c>
       <c r="AC568" t="n">
-        <v>155217996002.5341</v>
-      </c>
-      <c r="AD568" t="n">
         <v>155.2</v>
       </c>
     </row>
@@ -52835,9 +51129,6 @@
         <v>2.474384633154722</v>
       </c>
       <c r="AC569" t="n">
-        <v>151783281805.0288</v>
-      </c>
-      <c r="AD569" t="n">
         <v>1084</v>
       </c>
     </row>
@@ -52927,9 +51218,6 @@
         <v>2.323724065881187</v>
       </c>
       <c r="AC570" t="n">
-        <v>165396799146.469</v>
-      </c>
-      <c r="AD570" t="n">
         <v>1011</v>
       </c>
     </row>
@@ -53019,9 +51307,6 @@
         <v>2.308011031621686</v>
       </c>
       <c r="AC571" t="n">
-        <v>173289367692.7576</v>
-      </c>
-      <c r="AD571" t="n">
         <v>725</v>
       </c>
     </row>
@@ -53111,9 +51396,6 @@
         <v>2.585130300437542</v>
       </c>
       <c r="AC572" t="n">
-        <v>173113517328.0602</v>
-      </c>
-      <c r="AD572" t="n">
         <v>815</v>
       </c>
     </row>
@@ -53203,9 +51485,6 @@
         <v>1.716338279548555</v>
       </c>
       <c r="AC573" t="n">
-        <v>142891776302.8492</v>
-      </c>
-      <c r="AD573" t="n">
         <v>422</v>
       </c>
     </row>
@@ -53295,9 +51574,6 @@
         <v>2.169160739174177</v>
       </c>
       <c r="AC574" t="n">
-        <v>153096868947.64</v>
-      </c>
-      <c r="AD574" t="n">
         <v>856</v>
       </c>
     </row>
@@ -53387,9 +51663,6 @@
         <v>1.914998537539044</v>
       </c>
       <c r="AC575" t="n">
-        <v>155630182593.8829</v>
-      </c>
-      <c r="AD575" t="n">
         <v>277</v>
       </c>
     </row>
@@ -53479,9 +51752,6 @@
         <v>2.867421485541202</v>
       </c>
       <c r="AC576" t="n">
-        <v>145778911549.2131</v>
-      </c>
-      <c r="AD576" t="n">
         <v>430.9</v>
       </c>
     </row>
@@ -53571,9 +51841,6 @@
         <v>2.818546411954137</v>
       </c>
       <c r="AC577" t="n">
-        <v>147910122146.7625</v>
-      </c>
-      <c r="AD577" t="n">
         <v>420</v>
       </c>
     </row>
@@ -53663,9 +51930,6 @@
         <v>2.785743085840141</v>
       </c>
       <c r="AC578" t="n">
-        <v>149198549450.287</v>
-      </c>
-      <c r="AD578" t="n">
         <v>391.4</v>
       </c>
     </row>
@@ -53755,9 +52019,6 @@
         <v>2.706187969967251</v>
       </c>
       <c r="AC579" t="n">
-        <v>151993650500.2996</v>
-      </c>
-      <c r="AD579" t="n">
         <v>323.8</v>
       </c>
     </row>
@@ -53847,9 +52108,6 @@
         <v>2.629783832599571</v>
       </c>
       <c r="AC580" t="n">
-        <v>154336629890.9261</v>
-      </c>
-      <c r="AD580" t="n">
         <v>299.2</v>
       </c>
     </row>
@@ -53939,9 +52197,6 @@
         <v>2.042633289032129</v>
       </c>
       <c r="AC581" t="n">
-        <v>148447969628.2806</v>
-      </c>
-      <c r="AD581" t="n">
         <v>353</v>
       </c>
     </row>
@@ -54031,9 +52286,6 @@
         <v>2.112019498842018</v>
       </c>
       <c r="AC582" t="n">
-        <v>146872995293.8667</v>
-      </c>
-      <c r="AD582" t="n">
         <v>361</v>
       </c>
     </row>
@@ -54123,9 +52375,6 @@
         <v>2.173053151645003</v>
       </c>
       <c r="AC583" t="n">
-        <v>145357328093.6007</v>
-      </c>
-      <c r="AD583" t="n">
         <v>375</v>
       </c>
     </row>
@@ -54215,9 +52464,6 @@
         <v>2.226341389252001</v>
       </c>
       <c r="AC584" t="n">
-        <v>143919638731.7296</v>
-      </c>
-      <c r="AD584" t="n">
         <v>386</v>
       </c>
     </row>
@@ -54307,9 +52553,6 @@
         <v>1.53796694788815</v>
       </c>
       <c r="AC585" t="n">
-        <v>171182006463.1296</v>
-      </c>
-      <c r="AD585" t="n">
         <v>318.2</v>
       </c>
     </row>
@@ -54399,9 +52642,6 @@
         <v>1.52074932870248</v>
       </c>
       <c r="AC586" t="n">
-        <v>175237202950.8024</v>
-      </c>
-      <c r="AD586" t="n">
         <v>332.3682227422361</v>
       </c>
     </row>
@@ -54491,9 +52731,6 @@
         <v>1.52074932870248</v>
       </c>
       <c r="AC587" t="n">
-        <v>175237202950.8024</v>
-      </c>
-      <c r="AD587" t="n">
         <v>356.5620909848094</v>
       </c>
     </row>
@@ -54583,9 +52820,6 @@
         <v>1.52074932870248</v>
       </c>
       <c r="AC588" t="n">
-        <v>175237202950.8024</v>
-      </c>
-      <c r="AD588" t="n">
         <v>357.751953357395</v>
       </c>
     </row>
@@ -54675,9 +52909,6 @@
         <v>1.52074932870248</v>
       </c>
       <c r="AC589" t="n">
-        <v>175237202950.8024</v>
-      </c>
-      <c r="AD589" t="n">
         <v>321.659461388966</v>
       </c>
     </row>
@@ -54767,9 +52998,6 @@
         <v>1.52074932870248</v>
       </c>
       <c r="AC590" t="n">
-        <v>175237202950.8024</v>
-      </c>
-      <c r="AD590" t="n">
         <v>313.330424780867</v>
       </c>
     </row>
@@ -54859,9 +53087,6 @@
         <v>1.52074932870248</v>
       </c>
       <c r="AC591" t="n">
-        <v>175237202950.8024</v>
-      </c>
-      <c r="AD591" t="n">
         <v>316.9000118986237</v>
       </c>
     </row>
@@ -54951,9 +53176,6 @@
         <v>1.52074932870248</v>
       </c>
       <c r="AC592" t="n">
-        <v>175237202950.8024</v>
-      </c>
-      <c r="AD592" t="n">
         <v>318.0898742712093</v>
       </c>
     </row>
@@ -55043,9 +53265,6 @@
         <v>1.52074932870248</v>
       </c>
       <c r="AC593" t="n">
-        <v>175237202950.8024</v>
-      </c>
-      <c r="AD593" t="n">
         <v>326.4189108793083</v>
       </c>
     </row>
@@ -55135,9 +53354,6 @@
         <v>1.52074932870248</v>
       </c>
       <c r="AC594" t="n">
-        <v>175237202950.8024</v>
-      </c>
-      <c r="AD594" t="n">
         <v>336.7310514417165</v>
       </c>
     </row>
@@ -55227,9 +53443,6 @@
         <v>1.52074932870248</v>
       </c>
       <c r="AC595" t="n">
-        <v>175237202950.8024</v>
-      </c>
-      <c r="AD595" t="n">
         <v>354.975607821362</v>
       </c>
     </row>
@@ -55319,9 +53532,6 @@
         <v>2.10821206754299</v>
       </c>
       <c r="AC596" t="n">
-        <v>159999433521.7956</v>
-      </c>
-      <c r="AD596" t="n">
         <v>718.2</v>
       </c>
     </row>
@@ -55411,9 +53621,6 @@
         <v>2.607575701576595</v>
       </c>
       <c r="AC597" t="n">
-        <v>133204046249.8327</v>
-      </c>
-      <c r="AD597" t="n">
         <v>633</v>
       </c>
     </row>
@@ -55503,9 +53710,6 @@
         <v>2.59670811978016</v>
       </c>
       <c r="AC598" t="n">
-        <v>134947358887.6957</v>
-      </c>
-      <c r="AD598" t="n">
         <v>680</v>
       </c>
     </row>
@@ -55595,9 +53799,6 @@
         <v>2.585706097082802</v>
       </c>
       <c r="AC599" t="n">
-        <v>136668963537.7072</v>
-      </c>
-      <c r="AD599" t="n">
         <v>705</v>
       </c>
     </row>
@@ -55687,9 +53888,6 @@
         <v>2.503143985034975</v>
       </c>
       <c r="AC600" t="n">
-        <v>149269266879.9986</v>
-      </c>
-      <c r="AD600" t="n">
         <v>780</v>
       </c>
     </row>
@@ -55779,9 +53977,6 @@
         <v>2.357105959024708</v>
       </c>
       <c r="AC601" t="n">
-        <v>168888708509.5074</v>
-      </c>
-      <c r="AD601" t="n">
         <v>659.6503588885464</v>
       </c>
     </row>
@@ -55871,9 +54066,6 @@
         <v>2.241260609778032</v>
       </c>
       <c r="AC602" t="n">
-        <v>169132332552.7013</v>
-      </c>
-      <c r="AD602" t="n">
         <v>719.9788630058566</v>
       </c>
     </row>
@@ -55963,9 +54155,6 @@
         <v>2.043472541798684</v>
       </c>
       <c r="AC603" t="n">
-        <v>169361779076.261</v>
-      </c>
-      <c r="AD603" t="n">
         <v>749.9229380421858</v>
       </c>
     </row>
@@ -56055,9 +54244,6 @@
         <v>1.907266715938637</v>
       </c>
       <c r="AC604" t="n">
-        <v>169472398012.3276</v>
-      </c>
-      <c r="AD604" t="n">
         <v>623.1009731824387</v>
       </c>
     </row>
@@ -56147,9 +54333,6 @@
         <v>0.800024233880678</v>
       </c>
       <c r="AC605" t="n">
-        <v>154998952808.2299</v>
-      </c>
-      <c r="AD605" t="n">
         <v>296</v>
       </c>
     </row>
@@ -56239,9 +54422,6 @@
         <v>1.592753076214718</v>
       </c>
       <c r="AC606" t="n">
-        <v>146084957086.9926</v>
-      </c>
-      <c r="AD606" t="n">
         <v>205.8656730629758</v>
       </c>
     </row>
@@ -56331,9 +54511,6 @@
         <v>1.592753076214718</v>
       </c>
       <c r="AC607" t="n">
-        <v>146084957086.9926</v>
-      </c>
-      <c r="AD607" t="n">
         <v>403.9964460304044</v>
       </c>
     </row>
@@ -56423,9 +54600,6 @@
         <v>0.4329944834573172</v>
       </c>
       <c r="AC608" t="n">
-        <v>82961835782.31259</v>
-      </c>
-      <c r="AD608" t="n">
         <v>241</v>
       </c>
     </row>
@@ -56515,9 +54689,6 @@
         <v>1.51139501039353</v>
       </c>
       <c r="AC609" t="n">
-        <v>174563566829.0163</v>
-      </c>
-      <c r="AD609" t="n">
         <v>210</v>
       </c>
     </row>
@@ -56607,9 +54778,6 @@
         <v>1.720484345351055</v>
       </c>
       <c r="AC610" t="n">
-        <v>165999407630.7888</v>
-      </c>
-      <c r="AD610" t="n">
         <v>132.10621339557</v>
       </c>
     </row>
@@ -56699,9 +54867,6 @@
         <v>1.747624995786812</v>
       </c>
       <c r="AC611" t="n">
-        <v>165949194950.9137</v>
-      </c>
-      <c r="AD611" t="n">
         <v>133.4272755295257</v>
       </c>
     </row>
@@ -56791,9 +54956,6 @@
         <v>1.775482533084927</v>
       </c>
       <c r="AC612" t="n">
-        <v>165895556785.4455</v>
-      </c>
-      <c r="AD612" t="n">
         <v>135.1886917081333</v>
       </c>
     </row>
@@ -56883,9 +55045,6 @@
         <v>1.8038491102316</v>
       </c>
       <c r="AC613" t="n">
-        <v>165840857501.1262</v>
-      </c>
-      <c r="AD613" t="n">
         <v>145.316834735127</v>
       </c>
     </row>
@@ -56975,9 +55134,6 @@
         <v>1.833239630471046</v>
       </c>
       <c r="AC614" t="n">
-        <v>165781453747.5034</v>
-      </c>
-      <c r="AD614" t="n">
         <v>271.2580915055705</v>
       </c>
     </row>
@@ -57067,9 +55223,6 @@
         <v>2.360356305987612</v>
       </c>
       <c r="AC615" t="n">
-        <v>134227745027.8249</v>
-      </c>
-      <c r="AD615" t="n">
         <v>310</v>
       </c>
     </row>
@@ -57159,9 +55312,6 @@
         <v>2.364088681347458</v>
       </c>
       <c r="AC616" t="n">
-        <v>134030525760.0685</v>
-      </c>
-      <c r="AD616" t="n">
         <v>330</v>
       </c>
     </row>
@@ -57251,9 +55401,6 @@
         <v>2.372807696421932</v>
       </c>
       <c r="AC617" t="n">
-        <v>133513419676.4404</v>
-      </c>
-      <c r="AD617" t="n">
         <v>500</v>
       </c>
     </row>
@@ -57343,9 +55490,6 @@
         <v>2.360356305987612</v>
       </c>
       <c r="AC618" t="n">
-        <v>134227745027.8249</v>
-      </c>
-      <c r="AD618" t="n">
         <v>340</v>
       </c>
     </row>
@@ -57435,9 +55579,6 @@
         <v>2.364088681347458</v>
       </c>
       <c r="AC619" t="n">
-        <v>134030525760.0685</v>
-      </c>
-      <c r="AD619" t="n">
         <v>410</v>
       </c>
     </row>
@@ -57527,9 +55668,6 @@
         <v>2.372807696421932</v>
       </c>
       <c r="AC620" t="n">
-        <v>133513419676.4404</v>
-      </c>
-      <c r="AD620" t="n">
         <v>495</v>
       </c>
     </row>
@@ -57619,9 +55757,6 @@
         <v>2.360356305987612</v>
       </c>
       <c r="AC621" t="n">
-        <v>134227745027.8249</v>
-      </c>
-      <c r="AD621" t="n">
         <v>330</v>
       </c>
     </row>
@@ -57711,9 +55846,6 @@
         <v>2.364088681347458</v>
       </c>
       <c r="AC622" t="n">
-        <v>134030525760.0685</v>
-      </c>
-      <c r="AD622" t="n">
         <v>330</v>
       </c>
     </row>
@@ -57803,9 +55935,6 @@
         <v>2.372807696421932</v>
       </c>
       <c r="AC623" t="n">
-        <v>133513419676.4404</v>
-      </c>
-      <c r="AD623" t="n">
         <v>490</v>
       </c>
     </row>
@@ -57895,9 +56024,6 @@
         <v>2.558003697248539</v>
       </c>
       <c r="AC624" t="n">
-        <v>152888392236.625</v>
-      </c>
-      <c r="AD624" t="n">
         <v>226</v>
       </c>
     </row>
@@ -57987,9 +56113,6 @@
         <v>2.558003697248539</v>
       </c>
       <c r="AC625" t="n">
-        <v>152888392236.625</v>
-      </c>
-      <c r="AD625" t="n">
         <v>287</v>
       </c>
     </row>
@@ -58079,9 +56202,6 @@
         <v>0.7453671918430714</v>
       </c>
       <c r="AC626" t="n">
-        <v>148476874119.054</v>
-      </c>
-      <c r="AD626" t="n">
         <v>665.815315513673</v>
       </c>
     </row>
@@ -58171,9 +56291,6 @@
         <v>0.7999854812413173</v>
       </c>
       <c r="AC627" t="n">
-        <v>144162996023.7042</v>
-      </c>
-      <c r="AD627" t="n">
         <v>704.5664714430402</v>
       </c>
     </row>
@@ -58263,9 +56380,6 @@
         <v>0.7999469427396499</v>
       </c>
       <c r="AC628" t="n">
-        <v>138166366493.8295</v>
-      </c>
-      <c r="AD628" t="n">
         <v>594.918314324717</v>
       </c>
     </row>
@@ -58355,9 +56469,6 @@
         <v>0.7482996928496904</v>
       </c>
       <c r="AC629" t="n">
-        <v>156167739142.1609</v>
-      </c>
-      <c r="AD629" t="n">
         <v>671.0995640494957</v>
       </c>
     </row>
@@ -58447,9 +56558,6 @@
         <v>0.7483217012835185</v>
       </c>
       <c r="AC630" t="n">
-        <v>163994251810.616</v>
-      </c>
-      <c r="AD630" t="n">
         <v>602.8446871284513</v>
       </c>
     </row>
@@ -58539,9 +56647,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC631" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD631" t="n">
         <v>633.2291162094324</v>
       </c>
     </row>
@@ -58631,9 +56736,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC632" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD632" t="n">
         <v>510.3703377515522</v>
       </c>
     </row>
@@ -58723,9 +56825,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC633" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD633" t="n">
         <v>499.3614866352547</v>
       </c>
     </row>
@@ -58815,9 +56914,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC634" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD634" t="n">
         <v>481.7473248491787</v>
       </c>
     </row>
@@ -58907,9 +57003,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC635" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD635" t="n">
         <v>471.619181822185</v>
       </c>
     </row>
@@ -58999,9 +57092,6 @@
         <v>0.7856869619702185</v>
       </c>
       <c r="AC636" t="n">
-        <v>122532851389.1139</v>
-      </c>
-      <c r="AD636" t="n">
         <v>651.7239860848122</v>
       </c>
     </row>
@@ -59091,9 +57181,6 @@
         <v>0.707134294985689</v>
       </c>
       <c r="AC637" t="n">
-        <v>106706570866.0814</v>
-      </c>
-      <c r="AD637" t="n">
         <v>539.6</v>
       </c>
     </row>
@@ -59183,9 +57270,6 @@
         <v>0.8291828732222071</v>
       </c>
       <c r="AC638" t="n">
-        <v>127709625187.2702</v>
-      </c>
-      <c r="AD638" t="n">
         <v>418</v>
       </c>
     </row>
@@ -59275,9 +57359,6 @@
         <v>2.456195550269772</v>
       </c>
       <c r="AC639" t="n">
-        <v>150382994209.1511</v>
-      </c>
-      <c r="AD639" t="n">
         <v>756.1</v>
       </c>
     </row>
@@ -59367,9 +57448,6 @@
         <v>1.118010795883003</v>
       </c>
       <c r="AC640" t="n">
-        <v>146500873347.8654</v>
-      </c>
-      <c r="AD640" t="n">
         <v>509</v>
       </c>
     </row>
@@ -59459,9 +57537,6 @@
         <v>0.8291768329073014</v>
       </c>
       <c r="AC641" t="n">
-        <v>138992586589.9886</v>
-      </c>
-      <c r="AD641" t="n">
         <v>458</v>
       </c>
     </row>
@@ -59551,9 +57626,6 @@
         <v>0.8292029794384898</v>
       </c>
       <c r="AC642" t="n">
-        <v>174995592004.9014</v>
-      </c>
-      <c r="AD642" t="n">
         <v>555</v>
       </c>
     </row>
@@ -59643,9 +57715,6 @@
         <v>0.8292029794384898</v>
       </c>
       <c r="AC643" t="n">
-        <v>174995592004.9014</v>
-      </c>
-      <c r="AD643" t="n">
         <v>539</v>
       </c>
     </row>
@@ -59735,9 +57804,6 @@
         <v>0.7070949241519938</v>
       </c>
       <c r="AC644" t="n">
-        <v>159998714762.5683</v>
-      </c>
-      <c r="AD644" t="n">
         <v>495</v>
       </c>
     </row>
@@ -59827,9 +57893,6 @@
         <v>0.8291495105208201</v>
       </c>
       <c r="AC645" t="n">
-        <v>187495168394.2974</v>
-      </c>
-      <c r="AD645" t="n">
         <v>630</v>
       </c>
     </row>
@@ -59919,9 +57982,6 @@
         <v>0.8291495105208201</v>
       </c>
       <c r="AC646" t="n">
-        <v>187495168394.2974</v>
-      </c>
-      <c r="AD646" t="n">
         <v>630</v>
       </c>
     </row>
@@ -60011,9 +58071,6 @@
         <v>0.4999999987298439</v>
       </c>
       <c r="AC647" t="n">
-        <v>147497556550.1357</v>
-      </c>
-      <c r="AD647" t="n">
         <v>280</v>
       </c>
     </row>
@@ -60103,9 +58160,6 @@
         <v>0.4999999987298439</v>
       </c>
       <c r="AC648" t="n">
-        <v>147497556550.1357</v>
-      </c>
-      <c r="AD648" t="n">
         <v>270</v>
       </c>
     </row>
@@ -60195,9 +58249,6 @@
         <v>0.7483466704777214</v>
       </c>
       <c r="AC649" t="n">
-        <v>203990246374.164</v>
-      </c>
-      <c r="AD649" t="n">
         <v>482</v>
       </c>
     </row>
@@ -60287,9 +58338,6 @@
         <v>0.7483466704777214</v>
       </c>
       <c r="AC650" t="n">
-        <v>203990246374.164</v>
-      </c>
-      <c r="AD650" t="n">
         <v>446</v>
       </c>
     </row>
@@ -60379,9 +58427,6 @@
         <v>0.707114665814114</v>
       </c>
       <c r="AC651" t="n">
-        <v>177499090740.6837</v>
-      </c>
-      <c r="AD651" t="n">
         <v>407</v>
       </c>
     </row>
@@ -60471,9 +58516,6 @@
         <v>0.707114665814114</v>
       </c>
       <c r="AC652" t="n">
-        <v>177499090740.6837</v>
-      </c>
-      <c r="AD652" t="n">
         <v>431</v>
       </c>
     </row>
@@ -60563,9 +58605,6 @@
         <v>0.6143322409120492</v>
       </c>
       <c r="AC653" t="n">
-        <v>129449506719.6194</v>
-      </c>
-      <c r="AD653" t="n">
         <v>810.6917962041481</v>
       </c>
     </row>
@@ -60655,9 +58694,6 @@
         <v>1.299005095666296</v>
       </c>
       <c r="AC654" t="n">
-        <v>143995985140.7935</v>
-      </c>
-      <c r="AD654" t="n">
         <v>484.3894491170901</v>
       </c>
     </row>
@@ -60747,9 +58783,6 @@
         <v>1.118010795883003</v>
       </c>
       <c r="AC655" t="n">
-        <v>146500873347.8654</v>
-      </c>
-      <c r="AD655" t="n">
         <v>484.3894491170901</v>
       </c>
     </row>
@@ -60839,9 +58872,6 @@
         <v>0.695981250889095</v>
       </c>
       <c r="AC656" t="n">
-        <v>146254092664.8723</v>
-      </c>
-      <c r="AD656" t="n">
         <v>554.8460962613941</v>
       </c>
     </row>
@@ -60931,9 +58961,6 @@
         <v>0.7453671918430714</v>
       </c>
       <c r="AC657" t="n">
-        <v>148476874119.054</v>
-      </c>
-      <c r="AD657" t="n">
         <v>665.815315513673</v>
       </c>
     </row>
@@ -61023,9 +59050,6 @@
         <v>0.7999469427396499</v>
       </c>
       <c r="AC658" t="n">
-        <v>138166366493.8295</v>
-      </c>
-      <c r="AD658" t="n">
         <v>693.5576203267426</v>
       </c>
     </row>
@@ -61115,9 +59139,6 @@
         <v>0.7999854812413173</v>
       </c>
       <c r="AC659" t="n">
-        <v>144162996023.7042</v>
-      </c>
-      <c r="AD659" t="n">
         <v>704.5664714430402</v>
       </c>
     </row>
@@ -61207,9 +59228,6 @@
         <v>0.489907130104986</v>
       </c>
       <c r="AC660" t="n">
-        <v>132170294702.9292</v>
-      </c>
-      <c r="AD660" t="n">
         <v>409.0889074816152</v>
       </c>
     </row>
@@ -61299,9 +59317,6 @@
         <v>0.687217651376634</v>
       </c>
       <c r="AC661" t="n">
-        <v>196657636555.305</v>
-      </c>
-      <c r="AD661" t="n">
         <v>667.1363776476287</v>
       </c>
     </row>
@@ -61391,9 +59406,6 @@
         <v>0.7483466704777214</v>
       </c>
       <c r="AC662" t="n">
-        <v>203990246374.164</v>
-      </c>
-      <c r="AD662" t="n">
         <v>591.3954819675018</v>
       </c>
     </row>
@@ -61483,9 +59495,6 @@
         <v>0.4898877146783077</v>
       </c>
       <c r="AC663" t="n">
-        <v>213994378999.5016</v>
-      </c>
-      <c r="AD663" t="n">
         <v>548.6811396362675</v>
       </c>
     </row>
@@ -61575,9 +59584,6 @@
         <v>0.4999999990692543</v>
       </c>
       <c r="AC664" t="n">
-        <v>227504154586.0995</v>
-      </c>
-      <c r="AD664" t="n">
         <v>438.5926284732925</v>
       </c>
     </row>
@@ -61667,9 +59673,6 @@
         <v>0.8164785268769695</v>
       </c>
       <c r="AC665" t="n">
-        <v>169999386753.2057</v>
-      </c>
-      <c r="AD665" t="n">
         <v>484.3894491170901</v>
       </c>
     </row>
@@ -61759,9 +59762,6 @@
         <v>0.488613645377868</v>
       </c>
       <c r="AC666" t="n">
-        <v>124490714340.6834</v>
-      </c>
-      <c r="AD666" t="n">
         <v>388.3922673829759</v>
       </c>
     </row>
@@ -61851,9 +59851,6 @@
         <v>0.4714180964948559</v>
       </c>
       <c r="AC667" t="n">
-        <v>116946878744.6379</v>
-      </c>
-      <c r="AD667" t="n">
         <v>429.3451935356026</v>
       </c>
     </row>
@@ -61943,9 +59940,6 @@
         <v>1.166254929220358</v>
       </c>
       <c r="AC668" t="n">
-        <v>149194227499.9744</v>
-      </c>
-      <c r="AD668" t="n">
         <v>444.7575850984191</v>
       </c>
     </row>
@@ -62035,9 +60029,6 @@
         <v>0.5967420059581741</v>
       </c>
       <c r="AC669" t="n">
-        <v>124777018069.2267</v>
-      </c>
-      <c r="AD669" t="n">
         <v>546.0390153683561</v>
       </c>
     </row>
@@ -62127,9 +60118,6 @@
         <v>0.9000306058123911</v>
       </c>
       <c r="AC670" t="n">
-        <v>128370036110.4324</v>
-      </c>
-      <c r="AD670" t="n">
         <v>880.7080893038002</v>
       </c>
     </row>
@@ -62219,9 +60207,6 @@
         <v>0.8974676970490904</v>
       </c>
       <c r="AC671" t="n">
-        <v>138486435584.5799</v>
-      </c>
-      <c r="AD671" t="n">
         <v>693.9979743713945</v>
       </c>
     </row>
@@ -62311,9 +60296,6 @@
         <v>0.8306792425468988</v>
       </c>
       <c r="AC672" t="n">
-        <v>145173490702.7027</v>
-      </c>
-      <c r="AD672" t="n">
         <v>702.3647012197806</v>
       </c>
     </row>
@@ -62403,9 +60385,6 @@
         <v>0.6898868784185458</v>
       </c>
       <c r="AC673" t="n">
-        <v>143025196294.476</v>
-      </c>
-      <c r="AD673" t="n">
         <v>712.0524902021225</v>
       </c>
     </row>
@@ -62495,9 +60474,6 @@
         <v>0.6848982993885132</v>
       </c>
       <c r="AC674" t="n">
-        <v>141108697395.5178</v>
-      </c>
-      <c r="AD674" t="n">
         <v>786.9126777929455</v>
       </c>
     </row>
@@ -62587,9 +60563,6 @@
         <v>0.6794516885151363</v>
       </c>
       <c r="AC675" t="n">
-        <v>139356078333.4298</v>
-      </c>
-      <c r="AD675" t="n">
         <v>939.7155312871548</v>
       </c>
     </row>
@@ -62679,9 +60652,6 @@
         <v>0.7482876820129676</v>
       </c>
       <c r="AC676" t="n">
-        <v>148164814717.2473</v>
-      </c>
-      <c r="AD676" t="n">
         <v>751.2440001761415</v>
       </c>
     </row>
@@ -62771,9 +60741,6 @@
         <v>0.4899063093848927</v>
       </c>
       <c r="AC677" t="n">
-        <v>142163355494.4116</v>
-      </c>
-      <c r="AD677" t="n">
         <v>614.2938922894007</v>
       </c>
     </row>
@@ -62863,9 +60830,6 @@
         <v>2.338122078927257</v>
       </c>
       <c r="AC678" t="n">
-        <v>162291730253.6789</v>
-      </c>
-      <c r="AD678" t="n">
         <v>252.5160868294203</v>
       </c>
     </row>
@@ -62955,9 +60919,6 @@
         <v>1.478979806827839</v>
       </c>
       <c r="AC679" t="n">
-        <v>172500167125.6241</v>
-      </c>
-      <c r="AD679" t="n">
         <v>229.8770545235103</v>
       </c>
     </row>
@@ -63047,9 +61008,6 @@
         <v>2.870733601318</v>
       </c>
       <c r="AC680" t="n">
-        <v>145193891622.3064</v>
-      </c>
-      <c r="AD680" t="n">
         <v>665.3749614690211</v>
       </c>
     </row>
@@ -63139,9 +61097,6 @@
         <v>1.614745070370021</v>
       </c>
       <c r="AC681" t="n">
-        <v>177872086211.3928</v>
-      </c>
-      <c r="AD681" t="n">
         <v>110.9692192522788</v>
       </c>
     </row>

--- a/Dataset_Cleaned/LiteratureDataset_Hardness_YW_v3_processed.xlsx
+++ b/Dataset_Cleaned/LiteratureDataset_Hardness_YW_v3_processed.xlsx
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07118508059371513</v>
+        <v>0.07118508059371512</v>
       </c>
       <c r="V23" t="n">
         <v>1693.261551578568</v>

--- a/Dataset_Cleaned/LiteratureDataset_Hardness_YW_v3_processed.xlsx
+++ b/Dataset_Cleaned/LiteratureDataset_Hardness_YW_v3_processed.xlsx
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07118508059371512</v>
+        <v>0.07118508059371513</v>
       </c>
       <c r="V23" t="n">
         <v>1693.261551578568</v>
